--- a/film_dataset.xlsx
+++ b/film_dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/PaoloMacbook/Documents/github_shared/film_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7797FA8B-9799-5D4A-8B9C-F91862CD6252}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92AE2575-FFFD-064A-897B-BD2A3DA15D63}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2643" uniqueCount="2118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2626" uniqueCount="2117">
   <si>
     <t>L'incredibile storia dell'isola delle rose</t>
   </si>
@@ -6050,9 +6050,6 @@
     <t>d_Pitt</t>
   </si>
   <si>
-    <t>diff_marcello</t>
-  </si>
-  <si>
     <t>Weir</t>
   </si>
   <si>
@@ -6146,12 +6143,6 @@
     <t>Ritchie</t>
   </si>
   <si>
-    <t>budget_mln$</t>
-  </si>
-  <si>
-    <t>boxoffice_mln$</t>
-  </si>
-  <si>
     <t>profit_ratio</t>
   </si>
   <si>
@@ -6393,6 +6384,12 @@
   </si>
   <si>
     <t>Tiernan</t>
+  </si>
+  <si>
+    <t>budget_mln</t>
+  </si>
+  <si>
+    <t>boxoffice_mln</t>
   </si>
 </sst>
 </file>
@@ -6720,13 +6717,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V101"/>
+  <dimension ref="A1:U101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="Q72" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V90" sqref="V90"/>
+      <selection pane="bottomRight" activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6738,12 +6735,11 @@
     <col min="10" max="10" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.6640625" style="1" customWidth="1"/>
     <col min="12" max="12" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5" customWidth="1"/>
-    <col min="21" max="21" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -6769,49 +6765,46 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
-        <v>2035</v>
+        <v>2115</v>
       </c>
       <c r="J1" t="s">
-        <v>2036</v>
+        <v>2116</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>2037</v>
+        <v>2034</v>
       </c>
       <c r="L1" t="s">
         <v>13</v>
       </c>
       <c r="M1" t="s">
-        <v>2003</v>
+        <v>9</v>
       </c>
       <c r="N1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O1" t="s">
-        <v>10</v>
+        <v>2002</v>
       </c>
       <c r="P1" t="s">
-        <v>2002</v>
+        <v>2092</v>
       </c>
       <c r="Q1" t="s">
-        <v>2095</v>
+        <v>2020</v>
       </c>
       <c r="R1" t="s">
-        <v>2021</v>
+        <v>2013</v>
       </c>
       <c r="S1" t="s">
-        <v>2014</v>
+        <v>11</v>
       </c>
       <c r="T1" t="s">
-        <v>11</v>
+        <v>123</v>
       </c>
       <c r="U1" t="s">
-        <v>123</v>
-      </c>
-      <c r="V1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -6819,7 +6812,7 @@
         <v>96</v>
       </c>
       <c r="C2" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="D2">
         <v>1998</v>
@@ -6850,8 +6843,7 @@
         <v>84</v>
       </c>
       <c r="M2">
-        <f t="shared" ref="M2:M18" si="0">B2-L2</f>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -6863,26 +6855,23 @@
         <v>0</v>
       </c>
       <c r="Q2">
+        <f t="shared" ref="Q2:Q28" si="0">SUM(M2:P2)</f>
         <v>0</v>
       </c>
       <c r="R2">
-        <f t="shared" ref="R2:R28" si="1">SUM(N2:Q2)</f>
         <v>0</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
         <v>1</v>
       </c>
-      <c r="V2" t="s">
+      <c r="U2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -6890,13 +6879,13 @@
         <v>95</v>
       </c>
       <c r="C3" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="D3">
         <v>2006</v>
       </c>
       <c r="E3" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="F3">
         <v>85</v>
@@ -6905,7 +6894,7 @@
         <v>8</v>
       </c>
       <c r="H3" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="I3">
         <v>40</v>
@@ -6914,54 +6903,50 @@
         <v>110</v>
       </c>
       <c r="K3" s="1">
-        <f t="shared" ref="K3:K66" si="2">J3/I3</f>
+        <f t="shared" ref="K3:K66" si="1">J3/I3</f>
         <v>2.75</v>
       </c>
       <c r="L3">
         <v>87</v>
       </c>
       <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
         <v>1</v>
       </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
       <c r="R3">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
         <v>1</v>
       </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>1</v>
-      </c>
-      <c r="V3" t="s">
+      <c r="U3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="B4">
         <v>94</v>
       </c>
       <c r="C4" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="D4">
         <v>2009</v>
@@ -6976,7 +6961,7 @@
         <v>8</v>
       </c>
       <c r="H4" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="I4">
         <v>70</v>
@@ -6985,46 +6970,42 @@
         <v>321</v>
       </c>
       <c r="K4" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.5857142857142854</v>
       </c>
       <c r="L4">
         <v>85</v>
       </c>
       <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
         <v>1</v>
       </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
       <c r="R4">
-        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
         <v>1</v>
       </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>1</v>
-      </c>
-      <c r="V4" t="s">
+      <c r="U4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>59</v>
       </c>
@@ -7032,7 +7013,7 @@
         <v>94</v>
       </c>
       <c r="C5" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="D5">
         <v>2006</v>
@@ -7044,7 +7025,7 @@
         <v>85</v>
       </c>
       <c r="G5" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="H5" t="s">
         <v>8</v>
@@ -7056,31 +7037,30 @@
         <v>291</v>
       </c>
       <c r="K5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3.2333333333333334</v>
       </c>
       <c r="L5">
         <v>83</v>
       </c>
       <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R5">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -7088,14 +7068,11 @@
       <c r="T5">
         <v>0</v>
       </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5" t="s">
+      <c r="U5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>41</v>
       </c>
@@ -7103,7 +7080,7 @@
         <v>93</v>
       </c>
       <c r="C6" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="D6">
         <v>1994</v>
@@ -7118,7 +7095,7 @@
         <v>8</v>
       </c>
       <c r="H6" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I6">
         <v>55</v>
@@ -7127,46 +7104,42 @@
         <v>678</v>
       </c>
       <c r="K6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>12.327272727272728</v>
       </c>
       <c r="L6">
         <v>78</v>
       </c>
       <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
         <v>0</v>
       </c>
       <c r="R6">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
         <v>1</v>
       </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>1</v>
-      </c>
-      <c r="V6" t="s">
+      <c r="U6" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>44</v>
       </c>
@@ -7174,7 +7147,7 @@
         <v>90</v>
       </c>
       <c r="C7" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D7">
         <v>1999</v>
@@ -7189,7 +7162,7 @@
         <v>8</v>
       </c>
       <c r="H7" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="I7">
         <v>63</v>
@@ -7198,46 +7171,42 @@
         <v>101</v>
       </c>
       <c r="K7" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.6031746031746033</v>
       </c>
       <c r="L7">
         <v>82</v>
       </c>
       <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
         <v>1</v>
       </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
       <c r="R7">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
         <v>1</v>
       </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <v>1</v>
-      </c>
-      <c r="V7" t="s">
+      <c r="U7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>48</v>
       </c>
@@ -7245,7 +7214,7 @@
         <v>89</v>
       </c>
       <c r="C8" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="D8">
         <v>2012</v>
@@ -7260,7 +7229,7 @@
         <v>8</v>
       </c>
       <c r="H8" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="I8">
         <v>100</v>
@@ -7269,46 +7238,42 @@
         <v>425</v>
       </c>
       <c r="K8" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.25</v>
       </c>
       <c r="L8">
         <v>78</v>
       </c>
       <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="N8">
         <v>1</v>
       </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
       <c r="R8">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
         <v>1</v>
       </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <v>1</v>
-      </c>
-      <c r="V8" t="s">
+      <c r="U8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -7316,7 +7281,7 @@
         <v>88</v>
       </c>
       <c r="C9" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="D9">
         <v>2014</v>
@@ -7331,7 +7296,7 @@
         <v>8</v>
       </c>
       <c r="H9" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="I9">
         <v>165</v>
@@ -7340,31 +7305,30 @@
         <v>702</v>
       </c>
       <c r="K9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.2545454545454549</v>
       </c>
       <c r="L9">
         <v>82</v>
       </c>
       <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
         <v>1</v>
       </c>
       <c r="R9">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -7372,14 +7336,11 @@
       <c r="T9">
         <v>0</v>
       </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-      <c r="V9" t="s">
+      <c r="U9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>120</v>
       </c>
@@ -7387,7 +7348,7 @@
         <v>87</v>
       </c>
       <c r="C10" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="D10">
         <v>2008</v>
@@ -7399,7 +7360,7 @@
         <v>90</v>
       </c>
       <c r="G10" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H10" t="s">
         <v>8</v>
@@ -7411,46 +7372,42 @@
         <v>1006</v>
       </c>
       <c r="K10" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.4378378378378383</v>
       </c>
       <c r="L10">
         <v>87</v>
       </c>
       <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
         <v>1</v>
       </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
       <c r="R10">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
         <v>1</v>
       </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <v>1</v>
-      </c>
-      <c r="V10" t="s">
+      <c r="U10" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -7458,7 +7415,7 @@
         <v>86</v>
       </c>
       <c r="C11" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="D11">
         <v>2010</v>
@@ -7470,10 +7427,10 @@
         <v>82</v>
       </c>
       <c r="G11" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="H11" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="I11">
         <v>80</v>
@@ -7482,46 +7439,42 @@
         <v>295</v>
       </c>
       <c r="K11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3.6875</v>
       </c>
       <c r="L11">
         <v>89</v>
       </c>
       <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
         <f t="shared" si="0"/>
-        <v>-3</v>
-      </c>
-      <c r="N11">
         <v>1</v>
       </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
       <c r="R11">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="S11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T11">
         <v>0</v>
       </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
-      <c r="V11" t="s">
+      <c r="U11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>40</v>
       </c>
@@ -7529,7 +7482,7 @@
         <v>85</v>
       </c>
       <c r="C12" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="D12">
         <v>2010</v>
@@ -7541,10 +7494,10 @@
         <v>88</v>
       </c>
       <c r="G12" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H12" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="I12">
         <v>170</v>
@@ -7553,31 +7506,30 @@
         <v>837</v>
       </c>
       <c r="K12" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.9235294117647062</v>
       </c>
       <c r="L12">
         <v>83</v>
       </c>
       <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="N12">
         <v>1</v>
       </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
       <c r="R12">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S12">
         <v>0</v>
@@ -7585,14 +7537,11 @@
       <c r="T12">
         <v>0</v>
       </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
-      <c r="V12" t="s">
+      <c r="U12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -7600,22 +7549,22 @@
         <v>85</v>
       </c>
       <c r="C13" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="D13">
         <v>2020</v>
       </c>
       <c r="E13" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="F13">
         <v>76</v>
       </c>
       <c r="G13" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H13" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="I13">
         <v>205</v>
@@ -7624,30 +7573,29 @@
         <v>362</v>
       </c>
       <c r="K13" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.7658536585365854</v>
       </c>
       <c r="L13">
         <v>71</v>
       </c>
       <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
         <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
         <v>0</v>
       </c>
       <c r="R13">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S13">
@@ -7656,14 +7604,11 @@
       <c r="T13">
         <v>0</v>
       </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
-      <c r="V13" t="s">
+      <c r="U13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -7677,7 +7622,7 @@
         <v>2014</v>
       </c>
       <c r="E14" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="F14">
         <v>70</v>
@@ -7686,7 +7631,7 @@
         <v>7</v>
       </c>
       <c r="H14" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="I14">
         <v>2</v>
@@ -7695,30 +7640,29 @@
         <v>6</v>
       </c>
       <c r="K14" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="L14">
         <v>82</v>
       </c>
       <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
         <v>0</v>
       </c>
       <c r="R14">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S14">
@@ -7727,14 +7671,11 @@
       <c r="T14">
         <v>0</v>
       </c>
-      <c r="U14">
-        <v>0</v>
-      </c>
-      <c r="V14" t="s">
+      <c r="U14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>84</v>
       </c>
@@ -7742,7 +7683,7 @@
         <v>84</v>
       </c>
       <c r="C15" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D15">
         <v>2016</v>
@@ -7754,7 +7695,7 @@
         <v>80</v>
       </c>
       <c r="G15" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H15" t="s">
         <v>7</v>
@@ -7766,46 +7707,42 @@
         <v>783</v>
       </c>
       <c r="K15" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>13.5</v>
       </c>
       <c r="L15">
         <v>75</v>
       </c>
       <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
         <v>0</v>
       </c>
       <c r="R15">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
         <v>1</v>
       </c>
-      <c r="T15">
-        <v>0</v>
-      </c>
-      <c r="U15">
-        <v>1</v>
-      </c>
-      <c r="V15" t="s">
+      <c r="U15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>61</v>
       </c>
@@ -7813,13 +7750,13 @@
         <v>84</v>
       </c>
       <c r="C16" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D16">
         <v>2016</v>
       </c>
       <c r="E16" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="F16">
         <v>78</v>
@@ -7837,30 +7774,29 @@
         <v>31</v>
       </c>
       <c r="K16" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="L16">
         <v>78</v>
       </c>
       <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
         <v>0</v>
       </c>
       <c r="R16">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S16">
@@ -7869,14 +7805,11 @@
       <c r="T16">
         <v>0</v>
       </c>
-      <c r="U16">
-        <v>0</v>
-      </c>
-      <c r="V16" t="s">
+      <c r="U16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>112</v>
       </c>
@@ -7884,13 +7817,13 @@
         <v>84</v>
       </c>
       <c r="C17" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="D17">
         <v>2016</v>
       </c>
       <c r="E17" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="F17">
         <v>58</v>
@@ -7908,46 +7841,42 @@
         <v>0.5</v>
       </c>
       <c r="K17" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="L17">
         <v>64</v>
       </c>
       <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
         <v>0</v>
       </c>
       <c r="R17">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>0</v>
-      </c>
-      <c r="U17">
         <v>1</v>
       </c>
-      <c r="V17" t="s">
+      <c r="U17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>104</v>
       </c>
@@ -7955,7 +7884,7 @@
         <v>83</v>
       </c>
       <c r="C18" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="D18">
         <v>1994</v>
@@ -7979,46 +7908,42 @@
         <v>29</v>
       </c>
       <c r="K18" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.1599999999999999</v>
       </c>
       <c r="L18">
         <v>90</v>
       </c>
       <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
         <f t="shared" si="0"/>
-        <v>-7</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
         <v>0</v>
       </c>
       <c r="R18">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T18">
         <v>0</v>
       </c>
-      <c r="U18">
-        <v>0</v>
-      </c>
-      <c r="V18" t="s">
+      <c r="U18" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>50</v>
       </c>
@@ -8026,19 +7951,19 @@
         <v>83</v>
       </c>
       <c r="C19" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="D19">
         <v>2014</v>
       </c>
       <c r="E19" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="F19">
         <v>77</v>
       </c>
       <c r="G19" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="H19" t="s">
         <v>8</v>
@@ -8050,14 +7975,14 @@
         <v>124</v>
       </c>
       <c r="K19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8.2666666666666675</v>
       </c>
       <c r="L19" t="s">
         <v>22</v>
       </c>
-      <c r="M19" t="s">
-        <v>22</v>
+      <c r="M19">
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -8069,34 +7994,31 @@
         <v>0</v>
       </c>
       <c r="Q19">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R19">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S19">
         <v>1</v>
       </c>
       <c r="T19">
-        <v>1</v>
-      </c>
-      <c r="U19">
-        <v>0</v>
-      </c>
-      <c r="V19" t="s">
+        <v>0</v>
+      </c>
+      <c r="U19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B20">
         <v>83</v>
       </c>
       <c r="C20" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="D20">
         <v>2007</v>
@@ -8108,7 +8030,7 @@
         <v>81</v>
       </c>
       <c r="G20" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="H20" t="s">
         <v>8</v>
@@ -8120,15 +8042,14 @@
         <v>172</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6.88</v>
       </c>
       <c r="L20">
         <v>86</v>
       </c>
       <c r="M20">
-        <f>B20-L20</f>
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -8140,26 +8061,23 @@
         <v>0</v>
       </c>
       <c r="Q20">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R20">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T20">
         <v>0</v>
       </c>
-      <c r="U20">
-        <v>0</v>
-      </c>
-      <c r="V20" t="s">
+      <c r="U20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>73</v>
       </c>
@@ -8167,7 +8085,7 @@
         <v>82</v>
       </c>
       <c r="C21" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="D21">
         <v>2002</v>
@@ -8179,10 +8097,10 @@
         <v>81</v>
       </c>
       <c r="G21" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="H21" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="I21">
         <v>52</v>
@@ -8191,29 +8109,29 @@
         <v>352</v>
       </c>
       <c r="K21" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6.7692307692307692</v>
       </c>
       <c r="L21" t="s">
         <v>22</v>
       </c>
-      <c r="M21" t="s">
-        <v>22</v>
+      <c r="M21">
+        <v>1</v>
       </c>
       <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
       <c r="R21">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="S21">
@@ -8222,14 +8140,11 @@
       <c r="T21">
         <v>1</v>
       </c>
-      <c r="U21">
-        <v>1</v>
-      </c>
-      <c r="V21" t="s">
+      <c r="U21" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -8237,7 +8152,7 @@
         <v>81</v>
       </c>
       <c r="C22" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D22">
         <v>2014</v>
@@ -8252,7 +8167,7 @@
         <v>8</v>
       </c>
       <c r="H22" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="I22">
         <v>61</v>
@@ -8261,15 +8176,14 @@
         <v>369</v>
       </c>
       <c r="K22" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6.0491803278688527</v>
       </c>
       <c r="L22">
         <v>82</v>
       </c>
       <c r="M22">
-        <f t="shared" ref="M22:M34" si="3">B22-L22</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -8281,26 +8195,23 @@
         <v>0</v>
       </c>
       <c r="Q22">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R22">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T22">
         <v>0</v>
       </c>
-      <c r="U22">
-        <v>0</v>
-      </c>
-      <c r="V22" t="s">
+      <c r="U22" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>91</v>
       </c>
@@ -8308,13 +8219,13 @@
         <v>81</v>
       </c>
       <c r="C23" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="D23">
         <v>2000</v>
       </c>
       <c r="E23" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="F23">
         <v>83</v>
@@ -8323,7 +8234,7 @@
         <v>7</v>
       </c>
       <c r="H23" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="I23">
         <v>8</v>
@@ -8332,46 +8243,42 @@
         <v>84</v>
       </c>
       <c r="K23" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10.5</v>
       </c>
       <c r="L23">
         <v>90</v>
       </c>
       <c r="M23">
-        <f t="shared" si="3"/>
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
       <c r="R23">
-        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
         <v>1</v>
       </c>
-      <c r="S23">
-        <v>0</v>
-      </c>
-      <c r="T23">
-        <v>0</v>
-      </c>
-      <c r="U23">
-        <v>1</v>
-      </c>
-      <c r="V23" t="s">
+      <c r="U23" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>70</v>
       </c>
@@ -8379,7 +8286,7 @@
         <v>81</v>
       </c>
       <c r="C24" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D24">
         <v>2010</v>
@@ -8391,7 +8298,7 @@
         <v>77</v>
       </c>
       <c r="G24" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="H24" t="s">
         <v>8</v>
@@ -8403,15 +8310,14 @@
         <v>225</v>
       </c>
       <c r="K24" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.625</v>
       </c>
       <c r="L24">
         <v>76</v>
       </c>
       <c r="M24">
-        <f t="shared" si="3"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -8423,26 +8329,23 @@
         <v>0</v>
       </c>
       <c r="Q24">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R24">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S24">
         <v>1</v>
       </c>
       <c r="T24">
-        <v>1</v>
-      </c>
-      <c r="U24">
-        <v>0</v>
-      </c>
-      <c r="V24" t="s">
+        <v>0</v>
+      </c>
+      <c r="U24" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>58</v>
       </c>
@@ -8450,7 +8353,7 @@
         <v>80</v>
       </c>
       <c r="C25" t="s">
-        <v>2038</v>
+        <v>2035</v>
       </c>
       <c r="D25">
         <v>2003</v>
@@ -8465,7 +8368,7 @@
         <v>7</v>
       </c>
       <c r="H25" t="s">
-        <v>2039</v>
+        <v>2036</v>
       </c>
       <c r="I25">
         <v>81</v>
@@ -8474,15 +8377,14 @@
         <v>485</v>
       </c>
       <c r="K25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.9876543209876543</v>
       </c>
       <c r="L25">
         <v>72</v>
       </c>
       <c r="M25">
-        <f t="shared" si="3"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -8494,26 +8396,23 @@
         <v>0</v>
       </c>
       <c r="Q25">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R25">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>0</v>
-      </c>
-      <c r="U25">
         <v>1</v>
       </c>
-      <c r="V25" t="s">
+      <c r="U25" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>51</v>
       </c>
@@ -8521,19 +8420,19 @@
         <v>80</v>
       </c>
       <c r="C26" t="s">
-        <v>2040</v>
+        <v>2037</v>
       </c>
       <c r="D26">
         <v>2014</v>
       </c>
       <c r="E26" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="F26">
         <v>80</v>
       </c>
       <c r="G26" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="H26" t="s">
         <v>8</v>
@@ -8545,15 +8444,14 @@
         <v>234</v>
       </c>
       <c r="K26" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>16.714285714285715</v>
       </c>
       <c r="L26">
         <v>82</v>
       </c>
       <c r="M26">
-        <f t="shared" si="3"/>
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="N26">
         <v>0</v>
@@ -8565,26 +8463,23 @@
         <v>0</v>
       </c>
       <c r="Q26">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R26">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S26">
         <v>1</v>
       </c>
       <c r="T26">
-        <v>1</v>
-      </c>
-      <c r="U26">
-        <v>0</v>
-      </c>
-      <c r="V26" t="s">
+        <v>0</v>
+      </c>
+      <c r="U26" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>94</v>
       </c>
@@ -8592,13 +8487,13 @@
         <v>80</v>
       </c>
       <c r="C27" t="s">
-        <v>2041</v>
+        <v>2038</v>
       </c>
       <c r="D27">
         <v>2020</v>
       </c>
       <c r="E27" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="F27">
         <v>58</v>
@@ -8607,7 +8502,7 @@
         <v>7</v>
       </c>
       <c r="H27" t="s">
-        <v>2042</v>
+        <v>2039</v>
       </c>
       <c r="I27">
         <v>20</v>
@@ -8616,15 +8511,14 @@
         <v>52</v>
       </c>
       <c r="K27" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.6</v>
       </c>
       <c r="L27">
         <v>70</v>
       </c>
       <c r="M27">
-        <f t="shared" si="3"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -8636,10 +8530,10 @@
         <v>0</v>
       </c>
       <c r="Q27">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R27">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S27">
@@ -8648,14 +8542,11 @@
       <c r="T27">
         <v>0</v>
       </c>
-      <c r="U27">
-        <v>0</v>
-      </c>
-      <c r="V27" t="s">
+      <c r="U27" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -8663,13 +8554,13 @@
         <v>80</v>
       </c>
       <c r="C28" t="s">
-        <v>2043</v>
+        <v>2040</v>
       </c>
       <c r="D28">
         <v>2013</v>
       </c>
       <c r="E28" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="F28">
         <v>78</v>
@@ -8687,15 +8578,14 @@
         <v>25</v>
       </c>
       <c r="K28" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.7777777777777777</v>
       </c>
       <c r="L28">
         <v>86</v>
       </c>
       <c r="M28">
-        <f t="shared" si="3"/>
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -8707,26 +8597,23 @@
         <v>0</v>
       </c>
       <c r="Q28">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R28">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>0</v>
-      </c>
-      <c r="U28">
         <v>1</v>
       </c>
-      <c r="V28" t="s">
+      <c r="U28" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>49</v>
       </c>
@@ -8734,7 +8621,7 @@
         <v>80</v>
       </c>
       <c r="C29" t="s">
-        <v>2044</v>
+        <v>2041</v>
       </c>
       <c r="D29">
         <v>1997</v>
@@ -8749,7 +8636,7 @@
         <v>8</v>
       </c>
       <c r="H29" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I29">
         <v>10</v>
@@ -8758,15 +8645,14 @@
         <v>225</v>
       </c>
       <c r="K29" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>22.5</v>
       </c>
       <c r="L29">
         <v>78</v>
       </c>
       <c r="M29">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N29">
         <v>0</v>
@@ -8775,13 +8661,13 @@
         <v>0</v>
       </c>
       <c r="P29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q29">
-        <v>1</v>
+        <f t="shared" ref="Q29" si="2">SUM(M29:O29)</f>
+        <v>0</v>
       </c>
       <c r="R29">
-        <f t="shared" ref="R29" si="4">SUM(N29:P29)</f>
         <v>0</v>
       </c>
       <c r="S29">
@@ -8790,14 +8676,11 @@
       <c r="T29">
         <v>0</v>
       </c>
-      <c r="U29">
-        <v>0</v>
-      </c>
-      <c r="V29" t="s">
+      <c r="U29" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>56</v>
       </c>
@@ -8805,7 +8688,7 @@
         <v>80</v>
       </c>
       <c r="C30" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="D30">
         <v>1998</v>
@@ -8820,7 +8703,7 @@
         <v>7</v>
       </c>
       <c r="H30" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="I30">
         <v>15</v>
@@ -8829,15 +8712,14 @@
         <v>46</v>
       </c>
       <c r="K30" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3.0666666666666669</v>
       </c>
       <c r="L30">
         <v>94</v>
       </c>
       <c r="M30">
-        <f t="shared" si="3"/>
-        <v>-14</v>
+        <v>0</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -8849,10 +8731,10 @@
         <v>0</v>
       </c>
       <c r="Q30">
+        <f t="shared" ref="Q30:Q48" si="3">SUM(M30:P30)</f>
         <v>0</v>
       </c>
       <c r="R30">
-        <f t="shared" ref="R30:R48" si="5">SUM(N30:Q30)</f>
         <v>0</v>
       </c>
       <c r="S30">
@@ -8861,14 +8743,11 @@
       <c r="T30">
         <v>0</v>
       </c>
-      <c r="U30">
-        <v>0</v>
-      </c>
-      <c r="V30" t="s">
+      <c r="U30" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>62</v>
       </c>
@@ -8876,7 +8755,7 @@
         <v>80</v>
       </c>
       <c r="C31" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="D31">
         <v>2013</v>
@@ -8888,10 +8767,10 @@
         <v>82</v>
       </c>
       <c r="G31" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="H31" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="I31">
         <v>100</v>
@@ -8900,46 +8779,42 @@
         <v>392</v>
       </c>
       <c r="K31" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3.92</v>
       </c>
       <c r="L31">
         <v>86</v>
       </c>
       <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
         <f t="shared" si="3"/>
-        <v>-6</v>
-      </c>
-      <c r="N31">
         <v>1</v>
       </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>0</v>
-      </c>
       <c r="R31">
-        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="S31">
         <v>1</v>
       </c>
       <c r="T31">
-        <v>1</v>
-      </c>
-      <c r="U31">
-        <v>0</v>
-      </c>
-      <c r="V31" t="s">
+        <v>0</v>
+      </c>
+      <c r="U31" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>28</v>
       </c>
@@ -8947,7 +8822,7 @@
         <v>79</v>
       </c>
       <c r="C32" t="s">
-        <v>2045</v>
+        <v>2042</v>
       </c>
       <c r="D32">
         <v>2011</v>
@@ -8959,10 +8834,10 @@
         <v>74</v>
       </c>
       <c r="G32" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="H32" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="I32">
         <v>27</v>
@@ -8971,46 +8846,42 @@
         <v>161</v>
       </c>
       <c r="K32" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.9629629629629628</v>
       </c>
       <c r="L32">
         <v>72</v>
       </c>
       <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
         <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="N32">
-        <v>0</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32">
-        <v>0</v>
-      </c>
-      <c r="Q32">
         <v>0</v>
       </c>
       <c r="R32">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T32">
         <v>0</v>
       </c>
-      <c r="U32">
-        <v>0</v>
-      </c>
-      <c r="V32" t="s">
+      <c r="U32" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>121</v>
       </c>
@@ -9018,7 +8889,7 @@
         <v>79</v>
       </c>
       <c r="C33" t="s">
-        <v>2046</v>
+        <v>2043</v>
       </c>
       <c r="D33">
         <v>2018</v>
@@ -9030,7 +8901,7 @@
         <v>75</v>
       </c>
       <c r="G33" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="H33" t="s">
         <v>7</v>
@@ -9042,46 +8913,42 @@
         <v>93</v>
       </c>
       <c r="K33" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6.2</v>
       </c>
       <c r="L33">
         <v>82</v>
       </c>
       <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
         <f t="shared" si="3"/>
-        <v>-3</v>
-      </c>
-      <c r="N33">
-        <v>0</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33">
-        <v>0</v>
-      </c>
-      <c r="Q33">
         <v>0</v>
       </c>
       <c r="R33">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T33">
         <v>0</v>
       </c>
-      <c r="U33">
-        <v>0</v>
-      </c>
-      <c r="V33" t="s">
+      <c r="U33" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>64</v>
       </c>
@@ -9089,7 +8956,7 @@
         <v>79</v>
       </c>
       <c r="C34" t="s">
-        <v>2047</v>
+        <v>2044</v>
       </c>
       <c r="D34">
         <v>2001</v>
@@ -9101,7 +8968,7 @@
         <v>82</v>
       </c>
       <c r="G34" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="H34" t="s">
         <v>8</v>
@@ -9113,46 +8980,42 @@
         <v>316</v>
       </c>
       <c r="K34" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.4482758620689653</v>
       </c>
       <c r="L34">
         <v>77</v>
       </c>
       <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
         <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="N34">
-        <v>0</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34">
-        <v>0</v>
-      </c>
-      <c r="Q34">
         <v>0</v>
       </c>
       <c r="R34">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S34">
         <v>1</v>
       </c>
       <c r="T34">
-        <v>1</v>
-      </c>
-      <c r="U34">
-        <v>0</v>
-      </c>
-      <c r="V34" t="s">
+        <v>0</v>
+      </c>
+      <c r="U34" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>31</v>
       </c>
@@ -9160,19 +9023,19 @@
         <v>79</v>
       </c>
       <c r="C35" t="s">
-        <v>2048</v>
+        <v>2045</v>
       </c>
       <c r="D35">
         <v>2013</v>
       </c>
       <c r="E35" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="F35">
         <v>73</v>
       </c>
       <c r="G35" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="H35" t="s">
         <v>8</v>
@@ -9184,14 +9047,14 @@
         <v>9</v>
       </c>
       <c r="K35" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
       <c r="L35" t="s">
         <v>22</v>
       </c>
-      <c r="M35" t="s">
-        <v>22</v>
+      <c r="M35">
+        <v>0</v>
       </c>
       <c r="N35">
         <v>0</v>
@@ -9203,26 +9066,23 @@
         <v>0</v>
       </c>
       <c r="Q35">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R35">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T35">
         <v>0</v>
       </c>
-      <c r="U35">
-        <v>0</v>
-      </c>
-      <c r="V35" t="s">
+      <c r="U35" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>80</v>
       </c>
@@ -9230,7 +9090,7 @@
         <v>79</v>
       </c>
       <c r="C36" t="s">
-        <v>2049</v>
+        <v>2046</v>
       </c>
       <c r="D36">
         <v>2000</v>
@@ -9254,15 +9114,14 @@
         <v>7</v>
       </c>
       <c r="K36" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.75</v>
       </c>
       <c r="L36">
         <v>82</v>
       </c>
       <c r="M36">
-        <f>B36-L36</f>
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="N36">
         <v>0</v>
@@ -9274,26 +9133,23 @@
         <v>0</v>
       </c>
       <c r="Q36">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R36">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T36">
         <v>0</v>
       </c>
-      <c r="U36">
-        <v>0</v>
-      </c>
-      <c r="V36" t="s">
+      <c r="U36" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>81</v>
       </c>
@@ -9301,13 +9157,13 @@
         <v>79</v>
       </c>
       <c r="C37" t="s">
-        <v>2050</v>
+        <v>2047</v>
       </c>
       <c r="D37">
         <v>2017</v>
       </c>
       <c r="E37" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="F37">
         <v>82</v>
@@ -9316,7 +9172,7 @@
         <v>7</v>
       </c>
       <c r="H37" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="I37">
         <v>15</v>
@@ -9325,14 +9181,14 @@
         <v>160</v>
       </c>
       <c r="K37" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10.666666666666666</v>
       </c>
       <c r="L37" t="s">
         <v>22</v>
       </c>
-      <c r="M37" t="s">
-        <v>22</v>
+      <c r="M37">
+        <v>0</v>
       </c>
       <c r="N37">
         <v>0</v>
@@ -9344,26 +9200,23 @@
         <v>0</v>
       </c>
       <c r="Q37">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R37">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T37">
         <v>0</v>
       </c>
-      <c r="U37">
-        <v>0</v>
-      </c>
-      <c r="V37" t="s">
+      <c r="U37" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>53</v>
       </c>
@@ -9371,13 +9224,13 @@
         <v>79</v>
       </c>
       <c r="C38" t="s">
-        <v>2051</v>
+        <v>2048</v>
       </c>
       <c r="D38">
         <v>1996</v>
       </c>
       <c r="E38" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="F38">
         <v>81</v>
@@ -9395,15 +9248,14 @@
         <v>16</v>
       </c>
       <c r="K38" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="L38">
         <v>93</v>
       </c>
       <c r="M38">
-        <f>B38-L38</f>
-        <v>-14</v>
+        <v>0</v>
       </c>
       <c r="N38">
         <v>0</v>
@@ -9415,26 +9267,23 @@
         <v>0</v>
       </c>
       <c r="Q38">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R38">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T38">
         <v>0</v>
       </c>
-      <c r="U38">
-        <v>0</v>
-      </c>
-      <c r="V38" t="s">
+      <c r="U38" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>47</v>
       </c>
@@ -9442,7 +9291,7 @@
         <v>79</v>
       </c>
       <c r="C39" t="s">
-        <v>2052</v>
+        <v>2049</v>
       </c>
       <c r="D39">
         <v>2005</v>
@@ -9454,7 +9303,7 @@
         <v>82</v>
       </c>
       <c r="G39" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H39" t="s">
         <v>8</v>
@@ -9466,46 +9315,42 @@
         <v>132</v>
       </c>
       <c r="K39" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.4444444444444446</v>
       </c>
       <c r="L39">
         <v>78</v>
       </c>
       <c r="M39">
-        <f>B39-L39</f>
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R39">
         <v>1</v>
       </c>
-      <c r="N39">
-        <v>0</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>0</v>
-      </c>
-      <c r="R39">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
       <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="T39">
         <v>1</v>
       </c>
-      <c r="T39">
-        <v>0</v>
-      </c>
-      <c r="U39">
-        <v>1</v>
-      </c>
-      <c r="V39" t="s">
+      <c r="U39" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -9513,7 +9358,7 @@
         <v>79</v>
       </c>
       <c r="C40" t="s">
-        <v>2053</v>
+        <v>2050</v>
       </c>
       <c r="D40">
         <v>1999</v>
@@ -9537,15 +9382,14 @@
         <v>23</v>
       </c>
       <c r="K40" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.7692307692307692</v>
       </c>
       <c r="L40">
         <v>82</v>
       </c>
       <c r="M40">
-        <f>B40-L40</f>
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="N40">
         <v>0</v>
@@ -9557,26 +9401,23 @@
         <v>0</v>
       </c>
       <c r="Q40">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R40">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>0</v>
-      </c>
-      <c r="U40">
         <v>1</v>
       </c>
-      <c r="V40" t="s">
+      <c r="U40" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>57</v>
       </c>
@@ -9584,19 +9425,19 @@
         <v>79</v>
       </c>
       <c r="C41" t="s">
-        <v>2054</v>
+        <v>2051</v>
       </c>
       <c r="D41">
         <v>2014</v>
       </c>
       <c r="E41" t="s">
-        <v>2055</v>
+        <v>2052</v>
       </c>
       <c r="F41">
         <v>81</v>
       </c>
       <c r="G41" t="s">
-        <v>2056</v>
+        <v>2053</v>
       </c>
       <c r="H41" t="s">
         <v>7</v>
@@ -9608,15 +9449,14 @@
         <v>172</v>
       </c>
       <c r="K41" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6.88</v>
       </c>
       <c r="L41">
         <v>86</v>
       </c>
       <c r="M41">
-        <f>B41-L41</f>
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="N41">
         <v>0</v>
@@ -9628,10 +9468,10 @@
         <v>0</v>
       </c>
       <c r="Q41">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R41">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S41">
@@ -9640,14 +9480,11 @@
       <c r="T41">
         <v>0</v>
       </c>
-      <c r="U41">
-        <v>0</v>
-      </c>
-      <c r="V41" t="s">
+      <c r="U41" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>79</v>
       </c>
@@ -9655,7 +9492,7 @@
         <v>78</v>
       </c>
       <c r="C42" t="s">
-        <v>2057</v>
+        <v>2054</v>
       </c>
       <c r="D42">
         <v>2008</v>
@@ -9670,7 +9507,7 @@
         <v>7</v>
       </c>
       <c r="H42" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I42">
         <v>70</v>
@@ -9679,15 +9516,14 @@
         <v>223</v>
       </c>
       <c r="K42" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3.1857142857142855</v>
       </c>
       <c r="L42">
         <v>70</v>
       </c>
       <c r="M42">
-        <f>B42-L42</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="N42">
         <v>0</v>
@@ -9699,26 +9535,23 @@
         <v>0</v>
       </c>
       <c r="Q42">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R42">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T42">
         <v>1</v>
       </c>
-      <c r="U42">
-        <v>1</v>
-      </c>
-      <c r="V42" t="s">
+      <c r="U42" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>72</v>
       </c>
@@ -9726,7 +9559,7 @@
         <v>78</v>
       </c>
       <c r="C43" t="s">
-        <v>2058</v>
+        <v>2055</v>
       </c>
       <c r="D43">
         <v>2013</v>
@@ -9738,10 +9571,10 @@
         <v>73</v>
       </c>
       <c r="G43" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="H43" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="I43">
         <v>75</v>
@@ -9750,14 +9583,14 @@
         <v>351</v>
       </c>
       <c r="K43" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.68</v>
       </c>
       <c r="L43" t="s">
         <v>22</v>
       </c>
-      <c r="M43" t="s">
-        <v>22</v>
+      <c r="M43">
+        <v>0</v>
       </c>
       <c r="N43">
         <v>0</v>
@@ -9769,10 +9602,10 @@
         <v>0</v>
       </c>
       <c r="Q43">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R43">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S43">
@@ -9781,14 +9614,11 @@
       <c r="T43">
         <v>0</v>
       </c>
-      <c r="U43">
-        <v>0</v>
-      </c>
-      <c r="V43" t="s">
+      <c r="U43" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>52</v>
       </c>
@@ -9796,7 +9626,7 @@
         <v>78</v>
       </c>
       <c r="C44" t="s">
-        <v>2094</v>
+        <v>2091</v>
       </c>
       <c r="D44">
         <v>1999</v>
@@ -9808,10 +9638,10 @@
         <v>87</v>
       </c>
       <c r="G44" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H44" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="I44">
         <v>63</v>
@@ -9820,15 +9650,14 @@
         <v>466</v>
       </c>
       <c r="K44" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7.3968253968253972</v>
       </c>
       <c r="L44">
         <v>88</v>
       </c>
       <c r="M44">
-        <f t="shared" ref="M44:M54" si="6">B44-L44</f>
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="N44">
         <v>0</v>
@@ -9840,34 +9669,31 @@
         <v>0</v>
       </c>
       <c r="Q44">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R44">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S44">
         <v>0</v>
       </c>
       <c r="T44">
-        <v>0</v>
-      </c>
-      <c r="U44">
         <v>1</v>
       </c>
-      <c r="V44" t="s">
+      <c r="U44" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="B45">
         <v>78</v>
       </c>
       <c r="C45" t="s">
-        <v>2059</v>
+        <v>2056</v>
       </c>
       <c r="D45">
         <v>2010</v>
@@ -9891,15 +9717,14 @@
         <v>86</v>
       </c>
       <c r="K45" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.2463768115942029</v>
       </c>
       <c r="L45">
         <v>87</v>
       </c>
       <c r="M45">
-        <f t="shared" si="6"/>
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="N45">
         <v>0</v>
@@ -9911,10 +9736,10 @@
         <v>0</v>
       </c>
       <c r="Q45">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R45">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S45">
@@ -9923,14 +9748,11 @@
       <c r="T45">
         <v>0</v>
       </c>
-      <c r="U45">
-        <v>0</v>
-      </c>
-      <c r="V45" t="s">
+      <c r="U45" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>96</v>
       </c>
@@ -9938,19 +9760,19 @@
         <v>77</v>
       </c>
       <c r="C46" t="s">
-        <v>2060</v>
+        <v>2057</v>
       </c>
       <c r="D46">
         <v>2011</v>
       </c>
       <c r="E46" t="s">
-        <v>2061</v>
+        <v>2058</v>
       </c>
       <c r="F46">
         <v>85</v>
       </c>
       <c r="G46" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="H46" t="s">
         <v>7</v>
@@ -9962,15 +9784,14 @@
         <v>426</v>
       </c>
       <c r="K46" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>42.6</v>
       </c>
       <c r="L46">
         <v>78</v>
       </c>
       <c r="M46">
-        <f t="shared" si="6"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N46">
         <v>0</v>
@@ -9982,10 +9803,10 @@
         <v>0</v>
       </c>
       <c r="Q46">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R46">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S46">
@@ -9994,14 +9815,11 @@
       <c r="T46">
         <v>0</v>
       </c>
-      <c r="U46">
-        <v>0</v>
-      </c>
-      <c r="V46" t="s">
+      <c r="U46" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>42</v>
       </c>
@@ -10009,13 +9827,13 @@
         <v>77</v>
       </c>
       <c r="C47" t="s">
-        <v>2062</v>
+        <v>2059</v>
       </c>
       <c r="D47">
         <v>1997</v>
       </c>
       <c r="E47" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="F47">
         <v>86</v>
@@ -10033,15 +9851,14 @@
         <v>230</v>
       </c>
       <c r="K47" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>11.5</v>
       </c>
       <c r="L47">
         <v>75</v>
       </c>
       <c r="M47">
-        <f t="shared" si="6"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N47">
         <v>0</v>
@@ -10053,26 +9870,23 @@
         <v>0</v>
       </c>
       <c r="Q47">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R47">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S47">
         <v>0</v>
       </c>
       <c r="T47">
-        <v>0</v>
-      </c>
-      <c r="U47">
         <v>1</v>
       </c>
-      <c r="V47" t="s">
+      <c r="U47" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>85</v>
       </c>
@@ -10080,7 +9894,7 @@
         <v>76</v>
       </c>
       <c r="C48" t="s">
-        <v>2063</v>
+        <v>2060</v>
       </c>
       <c r="D48">
         <v>1997</v>
@@ -10092,10 +9906,10 @@
         <v>73</v>
       </c>
       <c r="G48" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H48" t="s">
-        <v>2056</v>
+        <v>2053</v>
       </c>
       <c r="I48">
         <v>90</v>
@@ -10104,15 +9918,14 @@
         <v>589</v>
       </c>
       <c r="K48" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6.5444444444444443</v>
       </c>
       <c r="L48">
         <v>77</v>
       </c>
       <c r="M48">
-        <f t="shared" si="6"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N48">
         <v>0</v>
@@ -10124,34 +9937,31 @@
         <v>0</v>
       </c>
       <c r="Q48">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R48">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
         <v>1</v>
       </c>
-      <c r="T48">
-        <v>0</v>
-      </c>
-      <c r="U48">
-        <v>1</v>
-      </c>
-      <c r="V48" t="s">
+      <c r="U48" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>2090</v>
+        <v>2087</v>
       </c>
       <c r="B49">
         <v>76</v>
       </c>
       <c r="C49" t="s">
-        <v>2092</v>
+        <v>2089</v>
       </c>
       <c r="D49">
         <v>2008</v>
@@ -10163,10 +9973,10 @@
         <v>64</v>
       </c>
       <c r="G49" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H49" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="I49">
         <v>45</v>
@@ -10175,14 +9985,14 @@
         <v>76</v>
       </c>
       <c r="K49" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.6888888888888889</v>
       </c>
       <c r="L49" t="s">
         <v>22</v>
       </c>
-      <c r="M49" t="s">
-        <v>22</v>
+      <c r="M49">
+        <v>0</v>
       </c>
       <c r="N49">
         <v>0</v>
@@ -10194,26 +10004,23 @@
         <v>0</v>
       </c>
       <c r="Q49">
+        <f>SUM(M49:P49)</f>
         <v>0</v>
       </c>
       <c r="R49">
-        <f>SUM(N49:Q49)</f>
         <v>0</v>
       </c>
       <c r="S49">
         <v>0</v>
       </c>
       <c r="T49">
-        <v>0</v>
-      </c>
-      <c r="U49">
         <v>1</v>
       </c>
-      <c r="V49" t="s">
+      <c r="U49" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>35</v>
       </c>
@@ -10221,7 +10028,7 @@
         <v>76</v>
       </c>
       <c r="C50" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="D50">
         <v>2003</v>
@@ -10233,10 +10040,10 @@
         <v>81</v>
       </c>
       <c r="G50" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H50" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="I50">
         <v>30</v>
@@ -10245,15 +10052,14 @@
         <v>181</v>
       </c>
       <c r="K50" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6.0333333333333332</v>
       </c>
       <c r="L50">
         <v>87</v>
       </c>
       <c r="M50">
-        <f t="shared" si="6"/>
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="N50">
         <v>0</v>
@@ -10265,10 +10071,10 @@
         <v>0</v>
       </c>
       <c r="Q50">
+        <f t="shared" ref="Q50:Q58" si="4">SUM(M50:P50)</f>
         <v>0</v>
       </c>
       <c r="R50">
-        <f t="shared" ref="R50:R58" si="7">SUM(N50:Q50)</f>
         <v>0</v>
       </c>
       <c r="S50">
@@ -10277,14 +10083,11 @@
       <c r="T50">
         <v>0</v>
       </c>
-      <c r="U50">
-        <v>0</v>
-      </c>
-      <c r="V50" t="s">
+      <c r="U50" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>0</v>
       </c>
@@ -10298,13 +10101,13 @@
         <v>2020</v>
       </c>
       <c r="E51" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="F51">
         <v>70</v>
       </c>
       <c r="G51" t="s">
-        <v>2056</v>
+        <v>2053</v>
       </c>
       <c r="H51" t="s">
         <v>7</v>
@@ -10322,39 +10125,35 @@
         <v>73</v>
       </c>
       <c r="M51">
-        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51">
         <v>1</v>
       </c>
-      <c r="N51">
-        <v>0</v>
-      </c>
-      <c r="O51">
-        <v>0</v>
-      </c>
       <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="Q51">
-        <v>0</v>
-      </c>
       <c r="R51">
-        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S51">
         <v>1</v>
       </c>
-      <c r="S51">
-        <v>0</v>
-      </c>
       <c r="T51">
-        <v>1</v>
-      </c>
-      <c r="U51">
-        <v>0</v>
-      </c>
-      <c r="V51" t="s">
+        <v>0</v>
+      </c>
+      <c r="U51" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>89</v>
       </c>
@@ -10362,7 +10161,7 @@
         <v>74</v>
       </c>
       <c r="C52" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D52">
         <v>2007</v>
@@ -10374,7 +10173,7 @@
         <v>77</v>
       </c>
       <c r="G52" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="H52" t="s">
         <v>8</v>
@@ -10386,15 +10185,14 @@
         <v>85</v>
       </c>
       <c r="K52" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.3076923076923077</v>
       </c>
       <c r="L52">
         <v>83</v>
       </c>
       <c r="M52">
-        <f t="shared" si="6"/>
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="N52">
         <v>0</v>
@@ -10406,34 +10204,31 @@
         <v>0</v>
       </c>
       <c r="Q52">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R52">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S52">
         <v>1</v>
       </c>
       <c r="T52">
-        <v>1</v>
-      </c>
-      <c r="U52">
-        <v>0</v>
-      </c>
-      <c r="V52" t="s">
+        <v>0</v>
+      </c>
+      <c r="U52" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>2091</v>
+        <v>2088</v>
       </c>
       <c r="B53">
         <v>73</v>
       </c>
       <c r="C53" t="s">
-        <v>2093</v>
+        <v>2090</v>
       </c>
       <c r="D53">
         <v>2001</v>
@@ -10448,7 +10243,7 @@
         <v>8</v>
       </c>
       <c r="H53" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="I53">
         <v>6</v>
@@ -10457,15 +10252,14 @@
         <v>7</v>
       </c>
       <c r="K53" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.1666666666666667</v>
       </c>
       <c r="L53">
         <v>78</v>
       </c>
       <c r="M53">
-        <f t="shared" si="6"/>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="N53">
         <v>0</v>
@@ -10477,26 +10271,23 @@
         <v>0</v>
       </c>
       <c r="Q53">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R53">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S53">
         <v>0</v>
       </c>
       <c r="T53">
-        <v>0</v>
-      </c>
-      <c r="U53">
         <v>1</v>
       </c>
-      <c r="V53" t="s">
+      <c r="U53" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>103</v>
       </c>
@@ -10504,7 +10295,7 @@
         <v>73</v>
       </c>
       <c r="C54" t="s">
-        <v>2064</v>
+        <v>2061</v>
       </c>
       <c r="D54">
         <v>2014</v>
@@ -10516,10 +10307,10 @@
         <v>74</v>
       </c>
       <c r="G54" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H54" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="I54">
         <v>20</v>
@@ -10528,15 +10319,14 @@
         <v>86</v>
       </c>
       <c r="K54" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.3</v>
       </c>
       <c r="L54">
         <v>88</v>
       </c>
       <c r="M54">
-        <f t="shared" si="6"/>
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="N54">
         <v>0</v>
@@ -10548,10 +10338,10 @@
         <v>0</v>
       </c>
       <c r="Q54">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R54">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S54">
@@ -10560,14 +10350,11 @@
       <c r="T54">
         <v>0</v>
       </c>
-      <c r="U54">
-        <v>0</v>
-      </c>
-      <c r="V54" t="s">
+      <c r="U54" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>76</v>
       </c>
@@ -10575,13 +10362,13 @@
         <v>73</v>
       </c>
       <c r="C55" t="s">
-        <v>2065</v>
+        <v>2062</v>
       </c>
       <c r="D55">
         <v>2009</v>
       </c>
       <c r="E55" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="F55">
         <v>74</v>
@@ -10599,14 +10386,14 @@
         <v>36</v>
       </c>
       <c r="K55" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.72</v>
       </c>
       <c r="L55" t="s">
         <v>22</v>
       </c>
-      <c r="M55" t="s">
-        <v>22</v>
+      <c r="M55">
+        <v>0</v>
       </c>
       <c r="N55">
         <v>0</v>
@@ -10618,10 +10405,10 @@
         <v>0</v>
       </c>
       <c r="Q55">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R55">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S55">
@@ -10630,14 +10417,11 @@
       <c r="T55">
         <v>0</v>
       </c>
-      <c r="U55">
-        <v>0</v>
-      </c>
-      <c r="V55" t="s">
+      <c r="U55" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>86</v>
       </c>
@@ -10645,7 +10429,7 @@
         <v>73</v>
       </c>
       <c r="C56" t="s">
-        <v>2066</v>
+        <v>2063</v>
       </c>
       <c r="D56">
         <v>2015</v>
@@ -10657,10 +10441,10 @@
         <v>81</v>
       </c>
       <c r="G56" t="s">
-        <v>2067</v>
+        <v>2064</v>
       </c>
       <c r="H56" t="s">
-        <v>2056</v>
+        <v>2053</v>
       </c>
       <c r="I56">
         <v>175</v>
@@ -10669,15 +10453,14 @@
         <v>858</v>
       </c>
       <c r="K56" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.902857142857143</v>
       </c>
       <c r="L56">
         <v>84</v>
       </c>
       <c r="M56">
-        <f>B56-L56</f>
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="N56">
         <v>0</v>
@@ -10689,10 +10472,10 @@
         <v>0</v>
       </c>
       <c r="Q56">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R56">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S56">
@@ -10701,14 +10484,11 @@
       <c r="T56">
         <v>0</v>
       </c>
-      <c r="U56">
-        <v>0</v>
-      </c>
-      <c r="V56" t="s">
+      <c r="U56" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>109</v>
       </c>
@@ -10716,7 +10496,7 @@
         <v>72</v>
       </c>
       <c r="C57" t="s">
-        <v>2089</v>
+        <v>2086</v>
       </c>
       <c r="D57">
         <v>2019</v>
@@ -10724,11 +10504,14 @@
       <c r="E57" t="s">
         <v>21</v>
       </c>
+      <c r="F57">
+        <v>70</v>
+      </c>
       <c r="G57" t="s">
-        <v>2072</v>
+        <v>2069</v>
       </c>
       <c r="H57" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="I57">
         <v>0</v>
@@ -10742,8 +10525,8 @@
       <c r="L57" t="s">
         <v>22</v>
       </c>
-      <c r="M57" t="s">
-        <v>22</v>
+      <c r="M57">
+        <v>0</v>
       </c>
       <c r="N57">
         <v>0</v>
@@ -10755,26 +10538,23 @@
         <v>0</v>
       </c>
       <c r="Q57">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R57">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T57">
-        <v>1</v>
-      </c>
-      <c r="U57">
-        <v>0</v>
-      </c>
-      <c r="V57" t="s">
+        <v>0</v>
+      </c>
+      <c r="U57" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>21</v>
       </c>
@@ -10782,7 +10562,7 @@
         <v>72</v>
       </c>
       <c r="C58" t="s">
-        <v>2068</v>
+        <v>2065</v>
       </c>
       <c r="D58">
         <v>2008</v>
@@ -10794,7 +10574,7 @@
         <v>68</v>
       </c>
       <c r="G58" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="H58" t="s">
         <v>8</v>
@@ -10806,14 +10586,14 @@
         <v>159</v>
       </c>
       <c r="K58" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.5428571428571427</v>
       </c>
       <c r="L58" t="s">
         <v>22</v>
       </c>
-      <c r="M58" t="s">
-        <v>22</v>
+      <c r="M58">
+        <v>0</v>
       </c>
       <c r="N58">
         <v>0</v>
@@ -10825,26 +10605,23 @@
         <v>0</v>
       </c>
       <c r="Q58">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R58">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S58">
         <v>0</v>
       </c>
       <c r="T58">
-        <v>0</v>
-      </c>
-      <c r="U58">
         <v>1</v>
       </c>
-      <c r="V58" t="s">
+      <c r="U58" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>69</v>
       </c>
@@ -10852,7 +10629,7 @@
         <v>72</v>
       </c>
       <c r="C59" t="s">
-        <v>2069</v>
+        <v>2066</v>
       </c>
       <c r="D59">
         <v>2007</v>
@@ -10864,10 +10641,10 @@
         <v>72</v>
       </c>
       <c r="G59" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H59" t="s">
-        <v>2056</v>
+        <v>2053</v>
       </c>
       <c r="I59">
         <v>150</v>
@@ -10876,15 +10653,14 @@
         <v>585</v>
       </c>
       <c r="K59" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3.9</v>
       </c>
       <c r="L59">
         <v>73</v>
       </c>
       <c r="M59">
-        <f>B59-L59</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N59">
         <v>0</v>
@@ -10896,26 +10672,23 @@
         <v>0</v>
       </c>
       <c r="Q59">
+        <f>SUM(M59:P59)</f>
         <v>0</v>
       </c>
       <c r="R59">
-        <f>SUM(N59:Q59)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
         <v>1</v>
       </c>
-      <c r="T59">
-        <v>0</v>
-      </c>
-      <c r="U59">
-        <v>1</v>
-      </c>
-      <c r="V59" t="s">
+      <c r="U59" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>105</v>
       </c>
@@ -10923,7 +10696,7 @@
         <v>72</v>
       </c>
       <c r="C60" t="s">
-        <v>2070</v>
+        <v>2067</v>
       </c>
       <c r="D60">
         <v>2015</v>
@@ -10935,7 +10708,7 @@
         <v>78</v>
       </c>
       <c r="G60" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="H60" t="s">
         <v>7</v>
@@ -10947,45 +10720,42 @@
         <v>133</v>
       </c>
       <c r="K60" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.75</v>
       </c>
       <c r="L60" t="s">
         <v>22</v>
       </c>
-      <c r="M60" t="s">
-        <v>22</v>
+      <c r="M60">
+        <v>0</v>
       </c>
       <c r="N60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O60">
         <v>1</v>
       </c>
       <c r="P60">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <f>SUM(M60:P60)</f>
+        <v>2</v>
+      </c>
+      <c r="R60">
         <v>1</v>
       </c>
-      <c r="Q60">
-        <v>0</v>
-      </c>
-      <c r="R60">
-        <f>SUM(N60:Q60)</f>
-        <v>2</v>
-      </c>
       <c r="S60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T60">
         <v>0</v>
       </c>
-      <c r="U60">
-        <v>0</v>
-      </c>
-      <c r="V60" t="s">
+      <c r="U60" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>83</v>
       </c>
@@ -10993,7 +10763,7 @@
         <v>72</v>
       </c>
       <c r="C61" t="s">
-        <v>2071</v>
+        <v>2068</v>
       </c>
       <c r="D61">
         <v>2002</v>
@@ -11005,10 +10775,10 @@
         <v>66</v>
       </c>
       <c r="G61" t="s">
-        <v>2072</v>
+        <v>2069</v>
       </c>
       <c r="H61" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="I61">
         <v>5</v>
@@ -11017,14 +10787,14 @@
         <v>79</v>
       </c>
       <c r="K61" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>15.8</v>
       </c>
       <c r="L61" t="s">
         <v>22</v>
       </c>
-      <c r="M61" t="s">
-        <v>22</v>
+      <c r="M61">
+        <v>0</v>
       </c>
       <c r="N61">
         <v>0</v>
@@ -11036,26 +10806,23 @@
         <v>0</v>
       </c>
       <c r="Q61">
+        <f>SUM(M61:P61)</f>
         <v>0</v>
       </c>
       <c r="R61">
-        <f>SUM(N61:Q61)</f>
         <v>0</v>
       </c>
       <c r="S61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T61">
         <v>1</v>
       </c>
-      <c r="U61">
-        <v>1</v>
-      </c>
-      <c r="V61" t="s">
+      <c r="U61" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>101</v>
       </c>
@@ -11063,7 +10830,7 @@
         <v>72</v>
       </c>
       <c r="C62" t="s">
-        <v>2073</v>
+        <v>2070</v>
       </c>
       <c r="D62">
         <v>2012</v>
@@ -11087,15 +10854,14 @@
         <v>549</v>
       </c>
       <c r="K62" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10.98</v>
       </c>
       <c r="L62">
         <v>66</v>
       </c>
       <c r="M62">
-        <f>B62-L62</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N62">
         <v>0</v>
@@ -11107,26 +10873,23 @@
         <v>0</v>
       </c>
       <c r="Q62">
+        <f>SUM(M62:P62)</f>
         <v>0</v>
       </c>
       <c r="R62">
-        <f>SUM(N62:Q62)</f>
         <v>0</v>
       </c>
       <c r="S62">
         <v>0</v>
       </c>
       <c r="T62">
-        <v>0</v>
-      </c>
-      <c r="U62">
         <v>1</v>
       </c>
-      <c r="V62" t="s">
+      <c r="U62" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>54</v>
       </c>
@@ -11134,22 +10897,22 @@
         <v>71</v>
       </c>
       <c r="C63" t="s">
-        <v>2074</v>
+        <v>2071</v>
       </c>
       <c r="D63">
         <v>2005</v>
       </c>
       <c r="E63" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="F63">
         <v>77</v>
       </c>
       <c r="G63" t="s">
-        <v>2056</v>
+        <v>2053</v>
       </c>
       <c r="H63" t="s">
-        <v>2042</v>
+        <v>2039</v>
       </c>
       <c r="I63">
         <v>150</v>
@@ -11158,15 +10921,14 @@
         <v>896</v>
       </c>
       <c r="K63" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.9733333333333336</v>
       </c>
       <c r="L63">
         <v>68</v>
       </c>
       <c r="M63">
-        <f>B63-L63</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N63">
         <v>0</v>
@@ -11178,26 +10940,23 @@
         <v>0</v>
       </c>
       <c r="Q63">
+        <f t="shared" ref="Q63:Q65" si="5">SUM(M63:O63)</f>
         <v>0</v>
       </c>
       <c r="R63">
-        <f t="shared" ref="R63:R65" si="8">SUM(N63:P63)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
         <v>1</v>
       </c>
-      <c r="T63">
-        <v>0</v>
-      </c>
-      <c r="U63">
-        <v>1</v>
-      </c>
-      <c r="V63" t="s">
+      <c r="U63" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>92</v>
       </c>
@@ -11205,7 +10964,7 @@
         <v>71</v>
       </c>
       <c r="C64" t="s">
-        <v>2075</v>
+        <v>2072</v>
       </c>
       <c r="D64">
         <v>2012</v>
@@ -11229,14 +10988,13 @@
         <v>179</v>
       </c>
       <c r="K64" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.7538461538461538</v>
       </c>
       <c r="L64">
         <v>71</v>
       </c>
       <c r="M64">
-        <f>B64-L64</f>
         <v>0</v>
       </c>
       <c r="N64">
@@ -11249,26 +11007,23 @@
         <v>0</v>
       </c>
       <c r="Q64">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R64">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
         <v>1</v>
       </c>
-      <c r="T64">
-        <v>0</v>
-      </c>
-      <c r="U64">
-        <v>1</v>
-      </c>
-      <c r="V64" t="s">
+      <c r="U64" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>110</v>
       </c>
@@ -11276,7 +11031,7 @@
         <v>71</v>
       </c>
       <c r="C65" t="s">
-        <v>2076</v>
+        <v>2073</v>
       </c>
       <c r="D65">
         <v>2007</v>
@@ -11288,10 +11043,10 @@
         <v>62</v>
       </c>
       <c r="G65" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H65" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="I65">
         <v>70</v>
@@ -11300,14 +11055,14 @@
         <v>77</v>
       </c>
       <c r="K65" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="L65" t="s">
         <v>22</v>
       </c>
-      <c r="M65" t="s">
-        <v>22</v>
+      <c r="M65">
+        <v>0</v>
       </c>
       <c r="N65">
         <v>0</v>
@@ -11319,26 +11074,23 @@
         <v>0</v>
       </c>
       <c r="Q65">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R65">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
         <v>1</v>
       </c>
-      <c r="T65">
-        <v>0</v>
-      </c>
-      <c r="U65">
-        <v>1</v>
-      </c>
-      <c r="V65" t="s">
+      <c r="U65" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>100</v>
       </c>
@@ -11346,7 +11098,7 @@
         <v>71</v>
       </c>
       <c r="C66" t="s">
-        <v>2077</v>
+        <v>2074</v>
       </c>
       <c r="D66">
         <v>2006</v>
@@ -11370,15 +11122,14 @@
         <v>240</v>
       </c>
       <c r="K66" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.9268292682926829</v>
       </c>
       <c r="L66">
         <v>63</v>
       </c>
       <c r="M66">
-        <f>B66-L66</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="N66">
         <v>0</v>
@@ -11390,26 +11141,23 @@
         <v>0</v>
       </c>
       <c r="Q66">
+        <f t="shared" ref="Q66:Q97" si="6">SUM(M66:O66)</f>
         <v>0</v>
       </c>
       <c r="R66">
-        <f t="shared" ref="R66:R97" si="9">SUM(N66:P66)</f>
         <v>0</v>
       </c>
       <c r="S66">
         <v>0</v>
       </c>
       <c r="T66">
-        <v>0</v>
-      </c>
-      <c r="U66">
         <v>1</v>
       </c>
-      <c r="V66" t="s">
+      <c r="U66" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>106</v>
       </c>
@@ -11417,7 +11165,7 @@
         <v>70</v>
       </c>
       <c r="C67" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D67">
         <v>2008</v>
@@ -11432,7 +11180,7 @@
         <v>8</v>
       </c>
       <c r="H67" t="s">
-        <v>2039</v>
+        <v>2036</v>
       </c>
       <c r="I67">
         <v>150</v>
@@ -11441,14 +11189,14 @@
         <v>335</v>
       </c>
       <c r="K67" s="1">
-        <f t="shared" ref="K67:K101" si="10">J67/I67</f>
+        <f t="shared" ref="K67:K101" si="7">J67/I67</f>
         <v>2.2333333333333334</v>
       </c>
       <c r="L67" t="s">
         <v>22</v>
       </c>
-      <c r="M67" t="s">
-        <v>22</v>
+      <c r="M67">
+        <v>0</v>
       </c>
       <c r="N67">
         <v>0</v>
@@ -11460,26 +11208,23 @@
         <v>0</v>
       </c>
       <c r="Q67">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R67">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T67">
         <v>0</v>
       </c>
-      <c r="U67">
-        <v>0</v>
-      </c>
-      <c r="V67" t="s">
+      <c r="U67" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>113</v>
       </c>
@@ -11487,7 +11232,7 @@
         <v>70</v>
       </c>
       <c r="C68" t="s">
-        <v>2078</v>
+        <v>2075</v>
       </c>
       <c r="D68">
         <v>2004</v>
@@ -11499,10 +11244,10 @@
         <v>69</v>
       </c>
       <c r="G68" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H68" t="s">
-        <v>2056</v>
+        <v>2053</v>
       </c>
       <c r="I68">
         <v>100</v>
@@ -11511,14 +11256,14 @@
         <v>347</v>
       </c>
       <c r="K68" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>3.47</v>
       </c>
       <c r="L68" t="s">
         <v>22</v>
       </c>
-      <c r="M68" t="s">
-        <v>22</v>
+      <c r="M68">
+        <v>0</v>
       </c>
       <c r="N68">
         <v>0</v>
@@ -11530,26 +11275,23 @@
         <v>0</v>
       </c>
       <c r="Q68">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R68">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S68">
         <v>0</v>
       </c>
       <c r="T68">
-        <v>0</v>
-      </c>
-      <c r="U68">
         <v>1</v>
       </c>
-      <c r="V68" t="s">
+      <c r="U68" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>117</v>
       </c>
@@ -11557,19 +11299,19 @@
         <v>70</v>
       </c>
       <c r="C69" t="s">
-        <v>2079</v>
+        <v>2076</v>
       </c>
       <c r="D69">
         <v>2006</v>
       </c>
       <c r="E69" t="s">
-        <v>2055</v>
+        <v>2052</v>
       </c>
       <c r="F69">
         <v>75</v>
       </c>
       <c r="G69" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="H69" t="s">
         <v>8</v>
@@ -11581,15 +11323,14 @@
         <v>135</v>
       </c>
       <c r="K69" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>2.25</v>
       </c>
       <c r="L69">
         <v>79</v>
       </c>
       <c r="M69">
-        <f>B69-L69</f>
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="N69">
         <v>0</v>
@@ -11601,26 +11342,23 @@
         <v>0</v>
       </c>
       <c r="Q69">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R69">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
         <v>1</v>
       </c>
-      <c r="T69">
-        <v>0</v>
-      </c>
-      <c r="U69">
-        <v>1</v>
-      </c>
-      <c r="V69" t="s">
+      <c r="U69" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>71</v>
       </c>
@@ -11628,7 +11366,7 @@
         <v>70</v>
       </c>
       <c r="C70" t="s">
-        <v>2080</v>
+        <v>2077</v>
       </c>
       <c r="D70">
         <v>2019</v>
@@ -11640,7 +11378,7 @@
         <v>85</v>
       </c>
       <c r="G70" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="H70" t="s">
         <v>8</v>
@@ -11652,15 +11390,14 @@
         <v>1074</v>
       </c>
       <c r="K70" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>19.527272727272727</v>
       </c>
       <c r="L70">
         <v>81</v>
       </c>
       <c r="M70">
-        <f>B70-L70</f>
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="N70">
         <v>0</v>
@@ -11672,26 +11409,23 @@
         <v>0</v>
       </c>
       <c r="Q70">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R70">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T70">
         <v>0</v>
       </c>
-      <c r="U70">
-        <v>0</v>
-      </c>
-      <c r="V70" t="s">
+      <c r="U70" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>116</v>
       </c>
@@ -11699,13 +11433,13 @@
         <v>69</v>
       </c>
       <c r="C71" t="s">
-        <v>2097</v>
+        <v>2094</v>
       </c>
       <c r="D71">
         <v>2010</v>
       </c>
       <c r="E71" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="F71">
         <v>66</v>
@@ -11714,7 +11448,7 @@
         <v>7</v>
       </c>
       <c r="H71" t="s">
-        <v>2096</v>
+        <v>2093</v>
       </c>
       <c r="I71">
         <v>1</v>
@@ -11723,15 +11457,14 @@
         <v>4</v>
       </c>
       <c r="K71" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="L71">
         <v>68</v>
       </c>
       <c r="M71">
-        <f>B71-L71</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N71">
         <v>0</v>
@@ -11743,10 +11476,10 @@
         <v>0</v>
       </c>
       <c r="Q71">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R71">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S71">
@@ -11755,14 +11488,11 @@
       <c r="T71">
         <v>0</v>
       </c>
-      <c r="U71">
-        <v>0</v>
-      </c>
-      <c r="V71" t="s">
+      <c r="U71" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>102</v>
       </c>
@@ -11770,7 +11500,7 @@
         <v>68</v>
       </c>
       <c r="C72" t="s">
-        <v>2046</v>
+        <v>2043</v>
       </c>
       <c r="D72">
         <v>2006</v>
@@ -11782,7 +11512,7 @@
         <v>76</v>
       </c>
       <c r="G72" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="H72" t="s">
         <v>8</v>
@@ -11794,14 +11524,14 @@
         <v>186</v>
       </c>
       <c r="K72" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>4.1333333333333337</v>
       </c>
       <c r="L72" t="s">
         <v>22</v>
       </c>
-      <c r="M72" t="s">
-        <v>22</v>
+      <c r="M72">
+        <v>0</v>
       </c>
       <c r="N72">
         <v>0</v>
@@ -11813,10 +11543,10 @@
         <v>0</v>
       </c>
       <c r="Q72">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R72">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S72">
@@ -11825,14 +11555,11 @@
       <c r="T72">
         <v>0</v>
       </c>
-      <c r="U72">
-        <v>0</v>
-      </c>
-      <c r="V72" t="s">
+      <c r="U72" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>99</v>
       </c>
@@ -11840,7 +11567,7 @@
         <v>68</v>
       </c>
       <c r="C73" t="s">
-        <v>2081</v>
+        <v>2078</v>
       </c>
       <c r="D73">
         <v>2016</v>
@@ -11855,7 +11582,7 @@
         <v>8</v>
       </c>
       <c r="H73" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I73">
         <v>36</v>
@@ -11864,14 +11591,14 @@
         <v>88</v>
       </c>
       <c r="K73" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>2.4444444444444446</v>
       </c>
       <c r="L73" t="s">
         <v>22</v>
       </c>
-      <c r="M73" t="s">
-        <v>22</v>
+      <c r="M73">
+        <v>0</v>
       </c>
       <c r="N73">
         <v>0</v>
@@ -11883,10 +11610,10 @@
         <v>0</v>
       </c>
       <c r="Q73">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R73">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S73">
@@ -11895,14 +11622,11 @@
       <c r="T73">
         <v>0</v>
       </c>
-      <c r="U73">
-        <v>0</v>
-      </c>
-      <c r="V73" t="s">
+      <c r="U73" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>98</v>
       </c>
@@ -11910,7 +11634,7 @@
         <v>66</v>
       </c>
       <c r="C74" t="s">
-        <v>2082</v>
+        <v>2079</v>
       </c>
       <c r="D74">
         <v>2005</v>
@@ -11925,7 +11649,7 @@
         <v>7</v>
       </c>
       <c r="H74" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I74">
         <v>70</v>
@@ -11934,15 +11658,14 @@
         <v>371</v>
       </c>
       <c r="K74" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>5.3</v>
       </c>
       <c r="L74">
         <v>60</v>
       </c>
       <c r="M74">
-        <f t="shared" ref="M74:M101" si="11">B74-L74</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N74">
         <v>0</v>
@@ -11954,26 +11677,23 @@
         <v>0</v>
       </c>
       <c r="Q74">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R74">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S74">
         <v>0</v>
       </c>
       <c r="T74">
-        <v>0</v>
-      </c>
-      <c r="U74">
         <v>1</v>
       </c>
-      <c r="V74" t="s">
+      <c r="U74" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>90</v>
       </c>
@@ -11981,13 +11701,13 @@
         <v>66</v>
       </c>
       <c r="C75" t="s">
-        <v>2083</v>
+        <v>2080</v>
       </c>
       <c r="D75">
         <v>2009</v>
       </c>
       <c r="E75" t="s">
-        <v>2084</v>
+        <v>2081</v>
       </c>
       <c r="F75">
         <v>78</v>
@@ -11996,7 +11716,7 @@
         <v>8</v>
       </c>
       <c r="H75" t="s">
-        <v>2039</v>
+        <v>2036</v>
       </c>
       <c r="I75">
         <v>47</v>
@@ -12005,15 +11725,14 @@
         <v>4</v>
       </c>
       <c r="K75" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>8.5106382978723402E-2</v>
       </c>
       <c r="L75">
         <v>87</v>
       </c>
       <c r="M75">
-        <f t="shared" si="11"/>
-        <v>-21</v>
+        <v>0</v>
       </c>
       <c r="N75">
         <v>0</v>
@@ -12025,10 +11744,10 @@
         <v>0</v>
       </c>
       <c r="Q75">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R75">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S75">
@@ -12037,14 +11756,11 @@
       <c r="T75">
         <v>0</v>
       </c>
-      <c r="U75">
-        <v>0</v>
-      </c>
-      <c r="V75" t="s">
+      <c r="U75" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>78</v>
       </c>
@@ -12052,13 +11768,13 @@
         <v>66</v>
       </c>
       <c r="C76" t="s">
-        <v>2051</v>
+        <v>2048</v>
       </c>
       <c r="D76">
         <v>2008</v>
       </c>
       <c r="E76" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="F76">
         <v>80</v>
@@ -12067,7 +11783,7 @@
         <v>8</v>
       </c>
       <c r="H76" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I76">
         <v>15</v>
@@ -12076,15 +11792,14 @@
         <v>378</v>
       </c>
       <c r="K76" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>25.2</v>
       </c>
       <c r="L76">
         <v>71</v>
       </c>
       <c r="M76">
-        <f t="shared" si="11"/>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="N76">
         <v>0</v>
@@ -12096,26 +11811,23 @@
         <v>0</v>
       </c>
       <c r="Q76">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R76">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
         <v>1</v>
       </c>
-      <c r="T76">
-        <v>0</v>
-      </c>
-      <c r="U76">
-        <v>1</v>
-      </c>
-      <c r="V76" t="s">
+      <c r="U76" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>77</v>
       </c>
@@ -12123,7 +11835,7 @@
         <v>64</v>
       </c>
       <c r="C77" t="s">
-        <v>2085</v>
+        <v>2082</v>
       </c>
       <c r="D77">
         <v>2013</v>
@@ -12147,15 +11859,14 @@
         <v>188</v>
       </c>
       <c r="K77" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>2.088888888888889</v>
       </c>
       <c r="L77">
         <v>78</v>
       </c>
       <c r="M77">
-        <f t="shared" si="11"/>
-        <v>-14</v>
+        <v>0</v>
       </c>
       <c r="N77">
         <v>0</v>
@@ -12167,26 +11878,23 @@
         <v>0</v>
       </c>
       <c r="Q77">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R77">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T77">
         <v>0</v>
       </c>
-      <c r="U77">
-        <v>0</v>
-      </c>
-      <c r="V77" t="s">
+      <c r="U77" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>88</v>
       </c>
@@ -12194,7 +11902,7 @@
         <v>63</v>
       </c>
       <c r="C78" t="s">
-        <v>2086</v>
+        <v>2083</v>
       </c>
       <c r="D78">
         <v>1997</v>
@@ -12206,10 +11914,10 @@
         <v>73</v>
       </c>
       <c r="G78" t="s">
-        <v>2067</v>
+        <v>2064</v>
       </c>
       <c r="H78" t="s">
-        <v>2056</v>
+        <v>2053</v>
       </c>
       <c r="I78">
         <v>85</v>
@@ -12218,15 +11926,14 @@
         <v>252</v>
       </c>
       <c r="K78" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>2.9647058823529413</v>
       </c>
       <c r="L78">
         <v>76</v>
       </c>
       <c r="M78">
-        <f t="shared" si="11"/>
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="N78">
         <v>0</v>
@@ -12238,26 +11945,23 @@
         <v>0</v>
       </c>
       <c r="Q78">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R78">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S78">
         <v>0</v>
       </c>
       <c r="T78">
-        <v>0</v>
-      </c>
-      <c r="U78">
         <v>1</v>
       </c>
-      <c r="V78" t="s">
+      <c r="U78" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>82</v>
       </c>
@@ -12265,22 +11969,22 @@
         <v>63</v>
       </c>
       <c r="C79" t="s">
-        <v>2087</v>
+        <v>2084</v>
       </c>
       <c r="D79">
         <v>2017</v>
       </c>
       <c r="E79" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="F79">
         <v>76</v>
       </c>
       <c r="G79" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H79" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="I79">
         <v>34</v>
@@ -12289,15 +11993,14 @@
         <v>226</v>
       </c>
       <c r="K79" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>6.6470588235294121</v>
       </c>
       <c r="L79">
         <v>77</v>
       </c>
       <c r="M79">
-        <f t="shared" si="11"/>
-        <v>-14</v>
+        <v>0</v>
       </c>
       <c r="N79">
         <v>0</v>
@@ -12309,10 +12012,10 @@
         <v>0</v>
       </c>
       <c r="Q79">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R79">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S79">
@@ -12321,14 +12024,11 @@
       <c r="T79">
         <v>0</v>
       </c>
-      <c r="U79">
-        <v>0</v>
-      </c>
-      <c r="V79" t="s">
+      <c r="U79" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>87</v>
       </c>
@@ -12336,7 +12036,7 @@
         <v>62</v>
       </c>
       <c r="C80" t="s">
-        <v>2088</v>
+        <v>2085</v>
       </c>
       <c r="D80">
         <v>2005</v>
@@ -12348,10 +12048,10 @@
         <v>69</v>
       </c>
       <c r="G80" t="s">
-        <v>2067</v>
+        <v>2064</v>
       </c>
       <c r="H80" t="s">
-        <v>2056</v>
+        <v>2053</v>
       </c>
       <c r="I80">
         <v>75</v>
@@ -12360,15 +12060,14 @@
         <v>542</v>
       </c>
       <c r="K80" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>7.2266666666666666</v>
       </c>
       <c r="L80">
         <v>68</v>
       </c>
       <c r="M80">
-        <f t="shared" si="11"/>
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="N80">
         <v>0</v>
@@ -12380,26 +12079,23 @@
         <v>0</v>
       </c>
       <c r="Q80">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R80">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S80">
         <v>0</v>
       </c>
       <c r="T80">
-        <v>0</v>
-      </c>
-      <c r="U80">
         <v>1</v>
       </c>
-      <c r="V80" t="s">
+      <c r="U80" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>55</v>
       </c>
@@ -12407,13 +12103,13 @@
         <v>62</v>
       </c>
       <c r="C81" t="s">
-        <v>2099</v>
+        <v>2096</v>
       </c>
       <c r="D81">
         <v>2005</v>
       </c>
       <c r="E81" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="F81">
         <v>76</v>
@@ -12422,7 +12118,7 @@
         <v>8</v>
       </c>
       <c r="H81" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I81">
         <v>15</v>
@@ -12431,15 +12127,14 @@
         <v>85</v>
       </c>
       <c r="K81" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>5.666666666666667</v>
       </c>
       <c r="L81">
         <v>78</v>
       </c>
       <c r="M81">
-        <f t="shared" si="11"/>
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="N81">
         <v>0</v>
@@ -12451,10 +12146,10 @@
         <v>0</v>
       </c>
       <c r="Q81">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R81">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S81">
@@ -12463,14 +12158,11 @@
       <c r="T81">
         <v>0</v>
       </c>
-      <c r="U81">
-        <v>0</v>
-      </c>
-      <c r="V81" t="s">
+      <c r="U81" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>93</v>
       </c>
@@ -12478,7 +12170,7 @@
         <v>61</v>
       </c>
       <c r="C82" t="s">
-        <v>2100</v>
+        <v>2097</v>
       </c>
       <c r="D82">
         <v>2014</v>
@@ -12490,10 +12182,10 @@
         <v>73</v>
       </c>
       <c r="G82" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H82" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="I82">
         <v>58</v>
@@ -12502,15 +12194,14 @@
         <v>547</v>
       </c>
       <c r="K82" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>9.431034482758621</v>
       </c>
       <c r="L82">
         <v>68</v>
       </c>
       <c r="M82">
-        <f t="shared" si="11"/>
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="N82">
         <v>0</v>
@@ -12522,26 +12213,23 @@
         <v>0</v>
       </c>
       <c r="Q82">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R82">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S82">
         <v>1</v>
       </c>
       <c r="T82">
-        <v>1</v>
-      </c>
-      <c r="U82">
-        <v>0</v>
-      </c>
-      <c r="V82" t="s">
+        <v>0</v>
+      </c>
+      <c r="U82" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>63</v>
       </c>
@@ -12549,22 +12237,22 @@
         <v>60</v>
       </c>
       <c r="C83" t="s">
-        <v>2101</v>
+        <v>2098</v>
       </c>
       <c r="D83">
         <v>2001</v>
       </c>
       <c r="E83" t="s">
-        <v>2102</v>
+        <v>2099</v>
       </c>
       <c r="F83">
         <v>86</v>
       </c>
       <c r="G83" t="s">
-        <v>2067</v>
+        <v>2064</v>
       </c>
       <c r="H83" t="s">
-        <v>2056</v>
+        <v>2053</v>
       </c>
       <c r="I83">
         <v>19</v>
@@ -12573,15 +12261,14 @@
         <v>355</v>
       </c>
       <c r="K83" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>18.684210526315791</v>
       </c>
       <c r="L83">
         <v>82</v>
       </c>
       <c r="M83">
-        <f t="shared" si="11"/>
-        <v>-22</v>
+        <v>0</v>
       </c>
       <c r="N83">
         <v>0</v>
@@ -12593,26 +12280,23 @@
         <v>0</v>
       </c>
       <c r="Q83">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R83">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T83">
         <v>0</v>
       </c>
-      <c r="U83">
-        <v>0</v>
-      </c>
-      <c r="V83" t="s">
+      <c r="U83" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>97</v>
       </c>
@@ -12620,7 +12304,7 @@
         <v>60</v>
       </c>
       <c r="C84" t="s">
-        <v>2103</v>
+        <v>2100</v>
       </c>
       <c r="D84">
         <v>2015</v>
@@ -12635,7 +12319,7 @@
         <v>7</v>
       </c>
       <c r="H84" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="I84">
         <v>50</v>
@@ -12644,15 +12328,14 @@
         <v>158</v>
       </c>
       <c r="K84" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>3.16</v>
       </c>
       <c r="L84">
         <v>63</v>
       </c>
       <c r="M84">
-        <f t="shared" si="11"/>
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="N84">
         <v>0</v>
@@ -12664,10 +12347,10 @@
         <v>0</v>
       </c>
       <c r="Q84">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R84">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S84">
@@ -12676,14 +12359,11 @@
       <c r="T84">
         <v>0</v>
       </c>
-      <c r="U84">
-        <v>0</v>
-      </c>
-      <c r="V84" t="s">
+      <c r="U84" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>300</v>
       </c>
@@ -12691,7 +12371,7 @@
         <v>60</v>
       </c>
       <c r="C85" t="s">
-        <v>2104</v>
+        <v>2101</v>
       </c>
       <c r="D85">
         <v>2006</v>
@@ -12703,7 +12383,7 @@
         <v>76</v>
       </c>
       <c r="G85" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H85" t="s">
         <v>8</v>
@@ -12715,15 +12395,14 @@
         <v>456</v>
       </c>
       <c r="K85" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>7.0153846153846153</v>
       </c>
       <c r="L85">
         <v>74</v>
       </c>
       <c r="M85">
-        <f t="shared" si="11"/>
-        <v>-14</v>
+        <v>0</v>
       </c>
       <c r="N85">
         <v>0</v>
@@ -12735,11 +12414,11 @@
         <v>0</v>
       </c>
       <c r="Q85">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R85">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S85">
         <v>1</v>
@@ -12747,14 +12426,11 @@
       <c r="T85">
         <v>1</v>
       </c>
-      <c r="U85">
-        <v>1</v>
-      </c>
-      <c r="V85" t="s">
+      <c r="U85" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>60</v>
       </c>
@@ -12762,7 +12438,7 @@
         <v>58</v>
       </c>
       <c r="C86" t="s">
-        <v>2080</v>
+        <v>2077</v>
       </c>
       <c r="D86">
         <v>2009</v>
@@ -12786,15 +12462,14 @@
         <v>469</v>
       </c>
       <c r="K86" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>13.4</v>
       </c>
       <c r="L86">
         <v>75</v>
       </c>
       <c r="M86">
-        <f t="shared" si="11"/>
-        <v>-17</v>
+        <v>0</v>
       </c>
       <c r="N86">
         <v>0</v>
@@ -12806,34 +12481,31 @@
         <v>0</v>
       </c>
       <c r="Q86">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R86">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S86">
         <v>0</v>
       </c>
       <c r="T86">
-        <v>0</v>
-      </c>
-      <c r="U86">
         <v>1</v>
       </c>
-      <c r="V86" t="s">
+      <c r="U86" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>2106</v>
+        <v>2103</v>
       </c>
       <c r="B87">
         <v>58</v>
       </c>
       <c r="C87" t="s">
-        <v>2105</v>
+        <v>2102</v>
       </c>
       <c r="D87">
         <v>2002</v>
@@ -12845,10 +12517,10 @@
         <v>73</v>
       </c>
       <c r="G87" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H87" t="s">
-        <v>2056</v>
+        <v>2053</v>
       </c>
       <c r="I87">
         <v>139</v>
@@ -12857,15 +12529,14 @@
         <v>825</v>
       </c>
       <c r="K87" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>5.9352517985611515</v>
       </c>
       <c r="L87">
         <v>77</v>
       </c>
       <c r="M87">
-        <f t="shared" si="11"/>
-        <v>-19</v>
+        <v>0</v>
       </c>
       <c r="N87">
         <v>0</v>
@@ -12877,26 +12548,23 @@
         <v>0</v>
       </c>
       <c r="Q87">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R87">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S87">
+        <v>0</v>
+      </c>
+      <c r="T87">
         <v>1</v>
       </c>
-      <c r="T87">
-        <v>0</v>
-      </c>
-      <c r="U87">
-        <v>1</v>
-      </c>
-      <c r="V87" t="s">
+      <c r="U87" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>111</v>
       </c>
@@ -12904,7 +12572,7 @@
         <v>57</v>
       </c>
       <c r="C88" t="s">
-        <v>2107</v>
+        <v>2104</v>
       </c>
       <c r="D88">
         <v>2007</v>
@@ -12916,7 +12584,7 @@
         <v>66</v>
       </c>
       <c r="G88" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="H88" t="s">
         <v>8</v>
@@ -12928,15 +12596,14 @@
         <v>7</v>
       </c>
       <c r="K88" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0.46666666666666667</v>
       </c>
       <c r="L88">
         <v>74</v>
       </c>
       <c r="M88">
-        <f t="shared" si="11"/>
-        <v>-17</v>
+        <v>0</v>
       </c>
       <c r="N88">
         <v>0</v>
@@ -12948,10 +12615,10 @@
         <v>0</v>
       </c>
       <c r="Q88">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R88">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S88">
@@ -12960,22 +12627,19 @@
       <c r="T88">
         <v>0</v>
       </c>
-      <c r="U88">
-        <v>0</v>
-      </c>
-      <c r="V88" t="s">
+      <c r="U88" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="B89">
         <v>56</v>
       </c>
       <c r="C89" t="s">
-        <v>2098</v>
+        <v>2095</v>
       </c>
       <c r="D89">
         <v>2003</v>
@@ -12999,15 +12663,14 @@
         <v>118</v>
       </c>
       <c r="K89" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>29.5</v>
       </c>
       <c r="L89">
         <v>76</v>
       </c>
       <c r="M89">
-        <f t="shared" si="11"/>
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="N89">
         <v>0</v>
@@ -13019,10 +12682,10 @@
         <v>0</v>
       </c>
       <c r="Q89">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R89">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S89">
@@ -13031,14 +12694,11 @@
       <c r="T89">
         <v>0</v>
       </c>
-      <c r="U89">
-        <v>0</v>
-      </c>
-      <c r="V89" t="s">
+      <c r="U89" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>108</v>
       </c>
@@ -13046,7 +12706,7 @@
         <v>56</v>
       </c>
       <c r="C90" t="s">
-        <v>2108</v>
+        <v>2105</v>
       </c>
       <c r="D90">
         <v>2009</v>
@@ -13058,7 +12718,7 @@
         <v>76</v>
       </c>
       <c r="G90" t="s">
-        <v>2056</v>
+        <v>2053</v>
       </c>
       <c r="H90" t="s">
         <v>7</v>
@@ -13070,15 +12730,14 @@
         <v>102</v>
       </c>
       <c r="K90" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>4.4347826086956523</v>
       </c>
       <c r="L90">
         <v>78</v>
       </c>
       <c r="M90">
-        <f t="shared" si="11"/>
-        <v>-22</v>
+        <v>0</v>
       </c>
       <c r="N90">
         <v>0</v>
@@ -13090,10 +12749,10 @@
         <v>0</v>
       </c>
       <c r="Q90">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R90">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S90">
@@ -13102,14 +12761,11 @@
       <c r="T90">
         <v>0</v>
       </c>
-      <c r="U90">
-        <v>0</v>
-      </c>
-      <c r="V90" t="s">
+      <c r="U90" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>46</v>
       </c>
@@ -13117,7 +12773,7 @@
         <v>55</v>
       </c>
       <c r="C91" t="s">
-        <v>2109</v>
+        <v>2106</v>
       </c>
       <c r="D91">
         <v>2009</v>
@@ -13129,10 +12785,10 @@
         <v>78</v>
       </c>
       <c r="G91" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H91" t="s">
-        <v>2056</v>
+        <v>2053</v>
       </c>
       <c r="I91">
         <v>237</v>
@@ -13141,15 +12797,14 @@
         <v>2790</v>
       </c>
       <c r="K91" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>11.772151898734178</v>
       </c>
       <c r="L91">
         <v>80</v>
       </c>
       <c r="M91">
-        <f t="shared" si="11"/>
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="N91">
         <v>0</v>
@@ -13161,10 +12816,10 @@
         <v>0</v>
       </c>
       <c r="Q91">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R91">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S91">
@@ -13173,14 +12828,11 @@
       <c r="T91">
         <v>0</v>
       </c>
-      <c r="U91">
-        <v>0</v>
-      </c>
-      <c r="V91" t="s">
+      <c r="U91" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>75</v>
       </c>
@@ -13188,7 +12840,7 @@
         <v>55</v>
       </c>
       <c r="C92" t="s">
-        <v>2110</v>
+        <v>2107</v>
       </c>
       <c r="D92">
         <v>2008</v>
@@ -13200,10 +12852,10 @@
         <v>79</v>
       </c>
       <c r="G92" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H92" t="s">
-        <v>2056</v>
+        <v>2053</v>
       </c>
       <c r="I92">
         <v>140</v>
@@ -13212,15 +12864,14 @@
         <v>585</v>
       </c>
       <c r="K92" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>4.1785714285714288</v>
       </c>
       <c r="L92">
         <v>75</v>
       </c>
       <c r="M92">
-        <f t="shared" si="11"/>
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="N92">
         <v>0</v>
@@ -13232,26 +12883,23 @@
         <v>0</v>
       </c>
       <c r="Q92">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R92">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S92">
+        <v>0</v>
+      </c>
+      <c r="T92">
         <v>1</v>
       </c>
-      <c r="T92">
-        <v>0</v>
-      </c>
-      <c r="U92">
-        <v>1</v>
-      </c>
-      <c r="V92" t="s">
+      <c r="U92" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>107</v>
       </c>
@@ -13259,7 +12907,7 @@
         <v>53</v>
       </c>
       <c r="C93" t="s">
-        <v>2111</v>
+        <v>2108</v>
       </c>
       <c r="D93">
         <v>2003</v>
@@ -13274,7 +12922,7 @@
         <v>7</v>
       </c>
       <c r="H93" t="s">
-        <v>2112</v>
+        <v>2109</v>
       </c>
       <c r="I93">
         <v>48</v>
@@ -13283,15 +12931,14 @@
         <v>220</v>
       </c>
       <c r="K93" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>4.583333333333333</v>
       </c>
       <c r="L93">
         <v>46</v>
       </c>
       <c r="M93">
-        <f t="shared" si="11"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N93">
         <v>0</v>
@@ -13303,26 +12950,23 @@
         <v>0</v>
       </c>
       <c r="Q93">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R93">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S93">
         <v>0</v>
       </c>
       <c r="T93">
-        <v>0</v>
-      </c>
-      <c r="U93">
         <v>1</v>
       </c>
-      <c r="V93" t="s">
+      <c r="U93" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>26</v>
       </c>
@@ -13330,7 +12974,7 @@
         <v>49</v>
       </c>
       <c r="C94" t="s">
-        <v>2113</v>
+        <v>2110</v>
       </c>
       <c r="D94">
         <v>1999</v>
@@ -13354,15 +12998,14 @@
         <v>356</v>
       </c>
       <c r="K94" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>23.733333333333334</v>
       </c>
       <c r="L94">
         <v>88</v>
       </c>
       <c r="M94">
-        <f t="shared" si="11"/>
-        <v>-39</v>
+        <v>0</v>
       </c>
       <c r="N94">
         <v>0</v>
@@ -13374,10 +13017,10 @@
         <v>0</v>
       </c>
       <c r="Q94">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R94">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S94">
@@ -13386,14 +13029,11 @@
       <c r="T94">
         <v>0</v>
       </c>
-      <c r="U94">
-        <v>0</v>
-      </c>
-      <c r="V94" t="s">
+      <c r="U94" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>29</v>
       </c>
@@ -13401,7 +13041,7 @@
         <v>44</v>
       </c>
       <c r="C95" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="D95">
         <v>2019</v>
@@ -13425,31 +13065,30 @@
         <v>374</v>
       </c>
       <c r="K95" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>4.1555555555555559</v>
       </c>
       <c r="L95">
         <v>82</v>
       </c>
       <c r="M95">
-        <f t="shared" si="11"/>
-        <v>-38</v>
+        <v>1</v>
       </c>
       <c r="N95">
+        <v>0</v>
+      </c>
+      <c r="O95">
         <v>1</v>
       </c>
-      <c r="O95">
-        <v>0</v>
-      </c>
       <c r="P95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q95">
-        <v>0</v>
+        <f>SUM(M95:P95)</f>
+        <v>2</v>
       </c>
       <c r="R95">
-        <f>SUM(N95:Q95)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S95">
         <v>0</v>
@@ -13457,14 +13096,11 @@
       <c r="T95">
         <v>0</v>
       </c>
-      <c r="U95">
-        <v>0</v>
-      </c>
-      <c r="V95" t="s">
+      <c r="U95" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>114</v>
       </c>
@@ -13472,7 +13108,7 @@
         <v>40</v>
       </c>
       <c r="C96" t="s">
-        <v>2114</v>
+        <v>2111</v>
       </c>
       <c r="D96">
         <v>2016</v>
@@ -13484,10 +13120,10 @@
         <v>60</v>
       </c>
       <c r="G96" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H96" t="s">
-        <v>2056</v>
+        <v>2053</v>
       </c>
       <c r="I96">
         <v>175</v>
@@ -13496,15 +13132,14 @@
         <v>746</v>
       </c>
       <c r="K96" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>4.2628571428571425</v>
       </c>
       <c r="L96">
         <v>42</v>
       </c>
       <c r="M96">
-        <f t="shared" si="11"/>
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="N96">
         <v>0</v>
@@ -13516,26 +13151,23 @@
         <v>0</v>
       </c>
       <c r="Q96">
+        <f>SUM(M96:P96)</f>
         <v>0</v>
       </c>
       <c r="R96">
-        <f>SUM(N96:Q96)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T96">
         <v>0</v>
       </c>
-      <c r="U96">
-        <v>0</v>
-      </c>
-      <c r="V96" t="s">
+      <c r="U96" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="97" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>74</v>
       </c>
@@ -13543,13 +13175,13 @@
         <v>39</v>
       </c>
       <c r="C97" t="s">
-        <v>2115</v>
+        <v>2112</v>
       </c>
       <c r="D97">
         <v>1999</v>
       </c>
       <c r="E97" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="F97">
         <v>74</v>
@@ -13558,7 +13190,7 @@
         <v>8</v>
       </c>
       <c r="H97" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="I97">
         <v>65</v>
@@ -13567,15 +13199,14 @@
         <v>162</v>
       </c>
       <c r="K97" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>2.4923076923076923</v>
       </c>
       <c r="L97">
         <v>90</v>
       </c>
       <c r="M97">
-        <f t="shared" si="11"/>
-        <v>-51</v>
+        <v>0</v>
       </c>
       <c r="N97">
         <v>0</v>
@@ -13587,26 +13218,23 @@
         <v>0</v>
       </c>
       <c r="Q97">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R97">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T97">
         <v>0</v>
       </c>
-      <c r="U97">
-        <v>0</v>
-      </c>
-      <c r="V97" t="s">
+      <c r="U97" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="98" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>1917</v>
       </c>
@@ -13614,7 +13242,7 @@
         <v>37</v>
       </c>
       <c r="C98" t="s">
-        <v>2113</v>
+        <v>2110</v>
       </c>
       <c r="D98">
         <v>2019</v>
@@ -13629,7 +13257,7 @@
         <v>8</v>
       </c>
       <c r="H98" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="I98">
         <v>95</v>
@@ -13638,15 +13266,14 @@
         <v>385</v>
       </c>
       <c r="K98" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>4.0526315789473681</v>
       </c>
       <c r="L98">
         <v>85</v>
       </c>
       <c r="M98">
-        <f t="shared" si="11"/>
-        <v>-48</v>
+        <v>0</v>
       </c>
       <c r="N98">
         <v>0</v>
@@ -13658,10 +13285,10 @@
         <v>0</v>
       </c>
       <c r="Q98">
+        <f t="shared" ref="Q98:Q100" si="8">SUM(M98:O98)</f>
         <v>0</v>
       </c>
       <c r="R98">
-        <f t="shared" ref="R98:R100" si="12">SUM(N98:P98)</f>
         <v>0</v>
       </c>
       <c r="S98">
@@ -13670,14 +13297,11 @@
       <c r="T98">
         <v>0</v>
       </c>
-      <c r="U98">
-        <v>0</v>
-      </c>
-      <c r="V98" t="s">
+      <c r="U98" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="99" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>65</v>
       </c>
@@ -13685,7 +13309,7 @@
         <v>36</v>
       </c>
       <c r="C99" t="s">
-        <v>2116</v>
+        <v>2113</v>
       </c>
       <c r="D99">
         <v>2008</v>
@@ -13700,7 +13324,7 @@
         <v>8</v>
       </c>
       <c r="H99" t="s">
-        <v>2039</v>
+        <v>2036</v>
       </c>
       <c r="I99">
         <v>37</v>
@@ -13709,15 +13333,14 @@
         <v>408</v>
       </c>
       <c r="K99" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>11.027027027027026</v>
       </c>
       <c r="L99">
         <v>56</v>
       </c>
       <c r="M99">
-        <f t="shared" si="11"/>
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="N99">
         <v>0</v>
@@ -13729,26 +13352,23 @@
         <v>0</v>
       </c>
       <c r="Q99">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R99">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T99">
         <v>0</v>
       </c>
-      <c r="U99">
-        <v>0</v>
-      </c>
-      <c r="V99" t="s">
+      <c r="U99" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="100" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>37</v>
       </c>
@@ -13756,7 +13376,7 @@
         <v>30</v>
       </c>
       <c r="C100" t="s">
-        <v>2117</v>
+        <v>2114</v>
       </c>
       <c r="D100">
         <v>2016</v>
@@ -13768,10 +13388,10 @@
         <v>61</v>
       </c>
       <c r="G100" t="s">
-        <v>2067</v>
+        <v>2064</v>
       </c>
       <c r="H100" t="s">
-        <v>2056</v>
+        <v>2053</v>
       </c>
       <c r="I100">
         <v>19</v>
@@ -13780,15 +13400,14 @@
         <v>140</v>
       </c>
       <c r="K100" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>7.3684210526315788</v>
       </c>
       <c r="L100">
         <v>46</v>
       </c>
       <c r="M100">
-        <f t="shared" si="11"/>
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="N100">
         <v>0</v>
@@ -13800,10 +13419,10 @@
         <v>0</v>
       </c>
       <c r="Q100">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R100">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="S100">
@@ -13812,14 +13431,11 @@
       <c r="T100">
         <v>0</v>
       </c>
-      <c r="U100">
-        <v>0</v>
-      </c>
-      <c r="V100" t="s">
+      <c r="U100" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="101" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>14</v>
       </c>
@@ -13851,15 +13467,14 @@
         <v>103</v>
       </c>
       <c r="K101" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>5.7222222222222223</v>
       </c>
       <c r="L101">
         <v>87</v>
       </c>
       <c r="M101">
-        <f t="shared" si="11"/>
-        <v>-62</v>
+        <v>0</v>
       </c>
       <c r="N101">
         <v>0</v>
@@ -13871,10 +13486,10 @@
         <v>0</v>
       </c>
       <c r="Q101">
+        <f>SUM(M101:P101)</f>
         <v>0</v>
       </c>
       <c r="R101">
-        <f>SUM(N101:Q101)</f>
         <v>0</v>
       </c>
       <c r="S101">
@@ -13883,15 +13498,12 @@
       <c r="T101">
         <v>0</v>
       </c>
-      <c r="U101">
-        <v>0</v>
-      </c>
-      <c r="V101" t="s">
+      <c r="U101" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V101">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U101">
     <sortCondition descending="1" ref="B1:B101"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
